--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.181457695407266</v>
+        <v>9.181457695407143</v>
       </c>
       <c r="D2">
-        <v>15.15881520536107</v>
+        <v>15.15881520536096</v>
       </c>
       <c r="E2">
-        <v>17.43865385930862</v>
+        <v>17.43865385930848</v>
       </c>
       <c r="F2">
-        <v>112.6493103438002</v>
+        <v>112.6493103437994</v>
       </c>
       <c r="G2">
-        <v>90.82885727355014</v>
+        <v>90.82885727354952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.98804198668027</v>
+        <v>19.98804198668014</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.077708352251621</v>
+        <v>8.077708352251502</v>
       </c>
       <c r="D3">
-        <v>13.26892816646345</v>
+        <v>13.26892816646326</v>
       </c>
       <c r="E3">
-        <v>15.24355874346111</v>
+        <v>15.2435587434611</v>
       </c>
       <c r="F3">
-        <v>98.81055271813281</v>
+        <v>98.81055271813189</v>
       </c>
       <c r="G3">
-        <v>79.63587366181719</v>
+        <v>79.63587366181642</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.50127635761281</v>
+        <v>17.50127635761273</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.49158450207169</v>
+        <v>7.491584502071803</v>
       </c>
       <c r="D4">
-        <v>12.27837668518424</v>
+        <v>12.27837668518454</v>
       </c>
       <c r="E4">
-        <v>14.09562465674385</v>
+        <v>14.09562465674393</v>
       </c>
       <c r="F4">
-        <v>91.52536287057897</v>
+        <v>91.52536287058</v>
       </c>
       <c r="G4">
-        <v>73.74150477668833</v>
+        <v>73.74150477668923</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.19956889206793</v>
+        <v>16.19956889206809</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.262865027844695</v>
+        <v>7.262865027844609</v>
       </c>
       <c r="D5">
-        <v>11.89379406728549</v>
+        <v>11.89379406728551</v>
       </c>
       <c r="E5">
-        <v>13.65034927062733</v>
+        <v>13.65034927062732</v>
       </c>
       <c r="F5">
-        <v>88.6945990882476</v>
+        <v>88.69459908824744</v>
       </c>
       <c r="G5">
-        <v>71.45039785964983</v>
+        <v>71.45039785964974</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.69444251575223</v>
+        <v>15.69444251575226</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -531,16 +531,16 @@
         <v>7.225299748868616</v>
       </c>
       <c r="D6">
-        <v>11.83072504040627</v>
+        <v>11.83072504040629</v>
       </c>
       <c r="E6">
-        <v>13.57734781171939</v>
+        <v>13.57734781171931</v>
       </c>
       <c r="F6">
-        <v>88.2303372076472</v>
+        <v>88.23033720764752</v>
       </c>
       <c r="G6">
-        <v>71.07459141178977</v>
+        <v>71.07459141179002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.488468543441575</v>
+        <v>7.488468543441429</v>
       </c>
       <c r="D7">
-        <v>12.27313042488422</v>
+        <v>12.27313042488431</v>
       </c>
       <c r="E7">
-        <v>14.08954897171398</v>
+        <v>14.08954897171391</v>
       </c>
       <c r="F7">
-        <v>91.48675156900438</v>
+        <v>91.48675156900454</v>
       </c>
       <c r="G7">
-        <v>73.71025772139606</v>
+        <v>73.71025772139619</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.19267729520876</v>
+        <v>16.19267729520874</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D8">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E8">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F8">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G8">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D9">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E9">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F9">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G9">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D10">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E10">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F10">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G10">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D11">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E11">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F11">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G11">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D12">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E12">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F12">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G12">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D13">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E13">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F13">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G13">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D14">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E14">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F14">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G14">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D15">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E15">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F15">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G15">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D16">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E16">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F16">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G16">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D17">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E17">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F17">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G17">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D18">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E18">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F18">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G18">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D19">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E19">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F19">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G19">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D20">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E20">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F20">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G20">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D21">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E21">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F21">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G21">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D22">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E22">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F22">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G22">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D23">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E23">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F23">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G23">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D24">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E24">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F24">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G24">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.76883255519661</v>
+        <v>8.768832555196674</v>
       </c>
       <c r="D25">
-        <v>14.44794157145112</v>
+        <v>14.44794157145118</v>
       </c>
       <c r="E25">
-        <v>16.61212737350406</v>
+        <v>16.61212737350403</v>
       </c>
       <c r="F25">
-        <v>107.4571326493096</v>
+        <v>107.4571326493097</v>
       </c>
       <c r="G25">
-        <v>86.62955205430536</v>
+        <v>86.62955205430546</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.05209282826957</v>
+        <v>19.05209282826954</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.181457695407143</v>
+        <v>9.181457695407266</v>
       </c>
       <c r="D2">
-        <v>15.15881520536096</v>
+        <v>15.15881520536107</v>
       </c>
       <c r="E2">
-        <v>17.43865385930848</v>
+        <v>17.43865385930862</v>
       </c>
       <c r="F2">
-        <v>112.6493103437994</v>
+        <v>112.6493103438002</v>
       </c>
       <c r="G2">
-        <v>90.82885727354952</v>
+        <v>90.82885727355014</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.98804198668014</v>
+        <v>19.98804198668027</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.077708352251502</v>
+        <v>8.077708352251621</v>
       </c>
       <c r="D3">
-        <v>13.26892816646326</v>
+        <v>13.26892816646345</v>
       </c>
       <c r="E3">
-        <v>15.2435587434611</v>
+        <v>15.24355874346111</v>
       </c>
       <c r="F3">
-        <v>98.81055271813189</v>
+        <v>98.81055271813281</v>
       </c>
       <c r="G3">
-        <v>79.63587366181642</v>
+        <v>79.63587366181719</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.50127635761273</v>
+        <v>17.50127635761281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.491584502071803</v>
+        <v>7.49158450207169</v>
       </c>
       <c r="D4">
-        <v>12.27837668518454</v>
+        <v>12.27837668518424</v>
       </c>
       <c r="E4">
-        <v>14.09562465674393</v>
+        <v>14.09562465674385</v>
       </c>
       <c r="F4">
-        <v>91.52536287058</v>
+        <v>91.52536287057897</v>
       </c>
       <c r="G4">
-        <v>73.74150477668923</v>
+        <v>73.74150477668833</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.19956889206809</v>
+        <v>16.19956889206793</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.262865027844609</v>
+        <v>7.262865027844695</v>
       </c>
       <c r="D5">
-        <v>11.89379406728551</v>
+        <v>11.89379406728549</v>
       </c>
       <c r="E5">
-        <v>13.65034927062732</v>
+        <v>13.65034927062733</v>
       </c>
       <c r="F5">
-        <v>88.69459908824744</v>
+        <v>88.6945990882476</v>
       </c>
       <c r="G5">
-        <v>71.45039785964974</v>
+        <v>71.45039785964983</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.69444251575226</v>
+        <v>15.69444251575223</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -531,16 +531,16 @@
         <v>7.225299748868616</v>
       </c>
       <c r="D6">
-        <v>11.83072504040629</v>
+        <v>11.83072504040627</v>
       </c>
       <c r="E6">
-        <v>13.57734781171931</v>
+        <v>13.57734781171939</v>
       </c>
       <c r="F6">
-        <v>88.23033720764752</v>
+        <v>88.2303372076472</v>
       </c>
       <c r="G6">
-        <v>71.07459141179002</v>
+        <v>71.07459141178977</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.488468543441429</v>
+        <v>7.488468543441575</v>
       </c>
       <c r="D7">
-        <v>12.27313042488431</v>
+        <v>12.27313042488422</v>
       </c>
       <c r="E7">
-        <v>14.08954897171391</v>
+        <v>14.08954897171398</v>
       </c>
       <c r="F7">
-        <v>91.48675156900454</v>
+        <v>91.48675156900438</v>
       </c>
       <c r="G7">
-        <v>73.71025772139619</v>
+        <v>73.71025772139606</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.19267729520874</v>
+        <v>16.19267729520876</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D8">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E8">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F8">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G8">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D9">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E9">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F9">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G9">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D10">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E10">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F10">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G10">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D11">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E11">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F11">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G11">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D12">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E12">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F12">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G12">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D13">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E13">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F13">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G13">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D14">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E14">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F14">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G14">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D15">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E15">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F15">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G15">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D16">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E16">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F16">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G16">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D17">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E17">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F17">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G17">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D18">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E18">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F18">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G18">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D19">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E19">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F19">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G19">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D20">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E20">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F20">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G20">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D21">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E21">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F21">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G21">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D22">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E22">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F22">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G22">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D23">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E23">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F23">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G23">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D24">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E24">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F24">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G24">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.768832555196674</v>
+        <v>8.76883255519661</v>
       </c>
       <c r="D25">
-        <v>14.44794157145118</v>
+        <v>14.44794157145112</v>
       </c>
       <c r="E25">
-        <v>16.61212737350403</v>
+        <v>16.61212737350406</v>
       </c>
       <c r="F25">
-        <v>107.4571326493097</v>
+        <v>107.4571326493096</v>
       </c>
       <c r="G25">
-        <v>86.62955205430546</v>
+        <v>86.62955205430536</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.05209282826954</v>
+        <v>19.05209282826957</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,700 +406,775 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.181457695407266</v>
+        <v>9.170892340692646</v>
       </c>
       <c r="D2">
-        <v>15.15881520536107</v>
+        <v>15.11158763870234</v>
       </c>
       <c r="E2">
-        <v>17.43865385930862</v>
+        <v>17.42488344240403</v>
       </c>
       <c r="F2">
-        <v>112.6493103438002</v>
+        <v>112.3972648240495</v>
       </c>
       <c r="G2">
-        <v>90.82885727355014</v>
+        <v>90.84072832326251</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>90.38228565235424</v>
       </c>
       <c r="I2">
-        <v>19.98804198668027</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>19.95647246161158</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.077708352251621</v>
+        <v>8.072358768985186</v>
       </c>
       <c r="D3">
-        <v>13.26892816646345</v>
+        <v>13.23455868643167</v>
       </c>
       <c r="E3">
-        <v>15.24355874346111</v>
+        <v>15.23964634819022</v>
       </c>
       <c r="F3">
-        <v>98.81055271813281</v>
+        <v>98.63976064806972</v>
       </c>
       <c r="G3">
-        <v>79.63587366181719</v>
+        <v>79.68705680795625</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>79.30363722503968</v>
       </c>
       <c r="I3">
-        <v>17.50127635761281</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>17.48283755546316</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.49158450207169</v>
+        <v>7.487755570230463</v>
       </c>
       <c r="D4">
-        <v>12.27837668518424</v>
+        <v>12.24853848345273</v>
       </c>
       <c r="E4">
-        <v>14.09562465674385</v>
+        <v>14.09428968198529</v>
       </c>
       <c r="F4">
-        <v>91.52536287057897</v>
+        <v>91.38153918228731</v>
       </c>
       <c r="G4">
-        <v>73.74150477668833</v>
+        <v>73.80055981846947</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>73.46379014662591</v>
       </c>
       <c r="I4">
-        <v>16.19956889206793</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>16.18509117638071</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.262865027844695</v>
+        <v>7.259500369129871</v>
       </c>
       <c r="D5">
-        <v>11.89379406728549</v>
+        <v>11.86548865277552</v>
       </c>
       <c r="E5">
-        <v>13.65034927062733</v>
+        <v>13.64975049666188</v>
       </c>
       <c r="F5">
-        <v>88.6945990882476</v>
+        <v>88.55962949765215</v>
       </c>
       <c r="G5">
-        <v>71.45039785964983</v>
+        <v>71.51119468115402</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>71.19420140569352</v>
       </c>
       <c r="I5">
-        <v>15.69444251575223</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15.68120400020166</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.225299748868616</v>
+        <v>7.222005781525631</v>
       </c>
       <c r="D6">
-        <v>11.83072504040627</v>
+        <v>11.80266126823819</v>
       </c>
       <c r="E6">
-        <v>13.57734781171939</v>
+        <v>13.57685843684014</v>
       </c>
       <c r="F6">
-        <v>88.2303372076472</v>
+        <v>88.09674990595181</v>
       </c>
       <c r="G6">
-        <v>71.07459141178977</v>
+        <v>71.13561732084557</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>70.82196541135937</v>
       </c>
       <c r="I6">
-        <v>15.61161829185645</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>15.59857019172678</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.488468543441575</v>
+        <v>7.484646352807685</v>
       </c>
       <c r="D7">
-        <v>12.27313042488422</v>
+        <v>12.24331386200459</v>
       </c>
       <c r="E7">
-        <v>14.08954897171398</v>
+        <v>14.0882248903845</v>
       </c>
       <c r="F7">
-        <v>91.48675156900438</v>
+        <v>91.34305388585928</v>
       </c>
       <c r="G7">
-        <v>73.71025772139606</v>
+        <v>73.76934076342245</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>73.43283416877127</v>
       </c>
       <c r="I7">
-        <v>16.19267729520876</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>16.17821744494435</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D8">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E8">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F8">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G8">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I8">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D9">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E9">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F9">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G9">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I9">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D10">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E10">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F10">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G10">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I10">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D11">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E11">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F11">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G11">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I11">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D12">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E12">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F12">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G12">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I12">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D13">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E13">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F13">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G13">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I13">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D14">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E14">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F14">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G14">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I14">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D15">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E15">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F15">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G15">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I15">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D16">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E16">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F16">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G16">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I16">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D17">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E17">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F17">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G17">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I17">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D18">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E18">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F18">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G18">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I18">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D19">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E19">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F19">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G19">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I19">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D20">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E20">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F20">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G20">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I20">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D21">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E21">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F21">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G21">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I21">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D22">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E22">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F22">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G22">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I22">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D23">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E23">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F23">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G23">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I23">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D24">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E24">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F24">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G24">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I24">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.76883255519661</v>
+        <v>8.760744233686493</v>
       </c>
       <c r="D25">
-        <v>14.44794157145112</v>
+        <v>14.40649407783935</v>
       </c>
       <c r="E25">
-        <v>16.61212737350406</v>
+        <v>16.60317360382472</v>
       </c>
       <c r="F25">
-        <v>107.4571326493096</v>
+        <v>107.2423002986633</v>
       </c>
       <c r="G25">
-        <v>86.62955205430536</v>
+        <v>86.66163283982212</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>86.22951887181533</v>
       </c>
       <c r="I25">
-        <v>19.05209282826957</v>
-      </c>
-      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>19.02671231002018</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.37432698508989</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.767290435635331</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30.54572061351657</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>44.0328940542852</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.017815558588409</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>30.46226446918603</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.9326936693315</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6.820638797300324</v>
+      </c>
+      <c r="D3">
+        <v>4.721092366871427</v>
+      </c>
+      <c r="E3">
+        <v>28.12619997682135</v>
+      </c>
+      <c r="F3">
+        <v>41.29729945759995</v>
+      </c>
+      <c r="G3">
+        <v>2.035658076067166</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>28.14918163760853</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.2214659350422</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6.467223129585728</v>
+      </c>
+      <c r="D4">
+        <v>4.703251438387648</v>
+      </c>
+      <c r="E4">
+        <v>26.59740886552784</v>
+      </c>
+      <c r="F4">
+        <v>39.61608774919736</v>
+      </c>
+      <c r="G4">
+        <v>2.046650734672345</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>26.67429922020338</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.40273151563319</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6.319648648184996</v>
+      </c>
+      <c r="D5">
+        <v>4.698321832935568</v>
+      </c>
+      <c r="E5">
+        <v>25.96236237534848</v>
+      </c>
+      <c r="F5">
+        <v>38.93027218237376</v>
+      </c>
+      <c r="G5">
+        <v>2.051151061545558</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>26.05877254918028</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.47757326147488</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6.294924677931936</v>
+      </c>
+      <c r="D6">
+        <v>4.69763630651925</v>
+      </c>
+      <c r="E6">
+        <v>25.85615406541659</v>
+      </c>
+      <c r="F6">
+        <v>38.81634677459168</v>
+      </c>
+      <c r="G6">
+        <v>2.051899890286752</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>25.95566880986332</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.49005919500951</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6.465247494216336</v>
+      </c>
+      <c r="D7">
+        <v>4.70317585966376</v>
+      </c>
+      <c r="E7">
+        <v>26.58889464652784</v>
+      </c>
+      <c r="F7">
+        <v>39.60684166651618</v>
+      </c>
+      <c r="G7">
+        <v>2.046711329914896</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>26.66605765107822</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.40373692874279</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7.186095083854793</v>
+      </c>
+      <c r="D8">
+        <v>4.748982397306289</v>
+      </c>
+      <c r="E8">
+        <v>29.71965785548792</v>
+      </c>
+      <c r="F8">
+        <v>43.08968832342804</v>
+      </c>
+      <c r="G8">
+        <v>2.023967317966195</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>29.67556035818296</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.03142334271765</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.502249911288608</v>
+      </c>
+      <c r="D9">
+        <v>4.938075419014167</v>
+      </c>
+      <c r="E9">
+        <v>35.58242620266096</v>
+      </c>
+      <c r="F9">
+        <v>50.02345060513476</v>
+      </c>
+      <c r="G9">
+        <v>1.979037141337676</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>35.18512094845295</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.33473398963948</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>9.42600051417573</v>
+      </c>
+      <c r="D10">
+        <v>5.163489097453445</v>
+      </c>
+      <c r="E10">
+        <v>39.84121028667263</v>
+      </c>
+      <c r="F10">
+        <v>55.48770918414214</v>
+      </c>
+      <c r="G10">
+        <v>1.944708650182252</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>39.06735496054331</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.8487095037229</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9.841813208501438</v>
+      </c>
+      <c r="D11">
+        <v>5.292287231696378</v>
+      </c>
+      <c r="E11">
+        <v>41.80710575925786</v>
+      </c>
+      <c r="F11">
+        <v>58.01186456629799</v>
+      </c>
+      <c r="G11">
+        <v>1.928451505336276</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>40.82046808762226</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.63567521879139</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9.999209127978986</v>
+      </c>
+      <c r="D12">
+        <v>5.345663190515894</v>
+      </c>
+      <c r="E12">
+        <v>42.56037032670043</v>
+      </c>
+      <c r="F12">
+        <v>58.97756295259251</v>
+      </c>
+      <c r="G12">
+        <v>1.92216138252186</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>41.48515302148758</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.55651910041838</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9.965302867779052</v>
+      </c>
+      <c r="D13">
+        <v>5.333947227712407</v>
+      </c>
+      <c r="E13">
+        <v>42.39765512690333</v>
+      </c>
+      <c r="F13">
+        <v>58.76905789401119</v>
+      </c>
+      <c r="G13">
+        <v>1.923522845558669</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>41.34191248613786</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.57349184760766</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9.854759623350997</v>
+      </c>
+      <c r="D14">
+        <v>5.296580663661684</v>
+      </c>
+      <c r="E14">
+        <v>41.86886733619483</v>
+      </c>
+      <c r="F14">
+        <v>58.09108514391039</v>
+      </c>
+      <c r="G14">
+        <v>1.92793698573935</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>40.87511719547874</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.62912997462046</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>9.787060406541313</v>
+      </c>
+      <c r="D15">
+        <v>5.274320556631188</v>
+      </c>
+      <c r="E15">
+        <v>41.5462872322502</v>
+      </c>
+      <c r="F15">
+        <v>57.67724602653285</v>
+      </c>
+      <c r="G15">
+        <v>1.930621862811363</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>40.58939264453007</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.66342072753089</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>9.398782435430713</v>
+      </c>
+      <c r="D16">
+        <v>5.155665864696896</v>
+      </c>
+      <c r="E16">
+        <v>39.7136760679237</v>
+      </c>
+      <c r="F16">
+        <v>55.32385922337322</v>
+      </c>
+      <c r="G16">
+        <v>1.945754925411243</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>38.95273489192304</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.86282082846752</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>9.159813034971007</v>
+      </c>
+      <c r="D17">
+        <v>5.090122093982056</v>
+      </c>
+      <c r="E17">
+        <v>38.5996214711805</v>
+      </c>
+      <c r="F17">
+        <v>53.89260681162421</v>
+      </c>
+      <c r="G17">
+        <v>1.954848647981326</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>37.94704378593768</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.98741653992004</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>9.021907263053965</v>
+      </c>
+      <c r="D18">
+        <v>5.054834542519132</v>
+      </c>
+      <c r="E18">
+        <v>37.96117784334233</v>
+      </c>
+      <c r="F18">
+        <v>53.07267478348138</v>
+      </c>
+      <c r="G18">
+        <v>1.960021905982103</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>37.36717992140631</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.05981062920314</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8.97512153551448</v>
+      </c>
+      <c r="D19">
+        <v>5.043279220706638</v>
+      </c>
+      <c r="E19">
+        <v>37.74529330867922</v>
+      </c>
+      <c r="F19">
+        <v>52.79551592951379</v>
+      </c>
+      <c r="G19">
+        <v>1.961764722645595</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>37.17053592615377</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.08443903217656</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>9.185295426444439</v>
+      </c>
+      <c r="D20">
+        <v>5.096844470689691</v>
+      </c>
+      <c r="E20">
+        <v>38.71794409892973</v>
+      </c>
+      <c r="F20">
+        <v>54.04459931766422</v>
+      </c>
+      <c r="G20">
+        <v>1.953886787536402</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>38.05423118120198</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.97407549444839</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.887225128513826</v>
+      </c>
+      <c r="D21">
+        <v>5.307423425911311</v>
+      </c>
+      <c r="E21">
+        <v>42.02389956572959</v>
+      </c>
+      <c r="F21">
+        <v>58.2899122587112</v>
+      </c>
+      <c r="G21">
+        <v>1.92664448208197</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>41.01217829994596</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.61274288906217</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>10.34601975272002</v>
+      </c>
+      <c r="D22">
+        <v>5.529728841705324</v>
+      </c>
+      <c r="E22">
+        <v>44.23956046592296</v>
+      </c>
+      <c r="F22">
+        <v>61.12522145183754</v>
+      </c>
+      <c r="G22">
+        <v>1.908028758601295</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>42.9521100509041</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.38572998604416</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>10.10090858883382</v>
+      </c>
+      <c r="D23">
+        <v>5.381526474706706</v>
+      </c>
+      <c r="E23">
+        <v>43.04993479817796</v>
+      </c>
+      <c r="F23">
+        <v>59.60452089179105</v>
+      </c>
+      <c r="G23">
+        <v>1.918056352744584</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>41.91497689922861</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.50588803367181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>9.173776494505702</v>
+      </c>
+      <c r="D24">
+        <v>5.093797885016868</v>
+      </c>
+      <c r="E24">
+        <v>38.6644444117834</v>
+      </c>
+      <c r="F24">
+        <v>53.97587473268192</v>
+      </c>
+      <c r="G24">
+        <v>1.954321812525878</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>38.00577717774164</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.98010463086508</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>8.155164337248658</v>
+      </c>
+      <c r="D25">
+        <v>4.87387744986853</v>
+      </c>
+      <c r="E25">
+        <v>34.01542048777395</v>
+      </c>
+      <c r="F25">
+        <v>48.07879953320429</v>
+      </c>
+      <c r="G25">
+        <v>1.991326746050622</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>33.73003725133469</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.51923690760787</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.37432698508989</v>
+        <v>4.915482947013334</v>
       </c>
       <c r="D2">
-        <v>4.767290435635331</v>
+        <v>6.712553661746575</v>
       </c>
       <c r="E2">
-        <v>30.54572061351657</v>
+        <v>16.34434537306079</v>
       </c>
       <c r="F2">
-        <v>44.0328940542852</v>
+        <v>38.36554658936928</v>
       </c>
       <c r="G2">
-        <v>2.017815558588409</v>
+        <v>3.663571022851992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.46226446918603</v>
+        <v>20.69077102583726</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.9326936693315</v>
+        <v>18.41588315197647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.820638797300324</v>
+        <v>4.751168202593566</v>
       </c>
       <c r="D3">
-        <v>4.721092366871427</v>
+        <v>6.730694078799715</v>
       </c>
       <c r="E3">
-        <v>28.12619997682135</v>
+        <v>15.4189264300548</v>
       </c>
       <c r="F3">
-        <v>41.29729945759995</v>
+        <v>37.80442069562195</v>
       </c>
       <c r="G3">
-        <v>2.035658076067166</v>
+        <v>3.669019411011778</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.14918163760853</v>
+        <v>20.04525747329902</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.2214659350422</v>
+        <v>18.48534606318901</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.467223129585728</v>
+        <v>4.649226523423754</v>
       </c>
       <c r="D4">
-        <v>4.703251438387648</v>
+        <v>6.743530190282536</v>
       </c>
       <c r="E4">
-        <v>26.59740886552784</v>
+        <v>14.82813360548222</v>
       </c>
       <c r="F4">
-        <v>39.61608774919736</v>
+        <v>37.47047795675854</v>
       </c>
       <c r="G4">
-        <v>2.046650734672345</v>
+        <v>3.672525403714152</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.67429922020338</v>
+        <v>19.645953987119</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.40273151563319</v>
+        <v>18.53001238408545</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.319648648184996</v>
+        <v>4.607492612973378</v>
       </c>
       <c r="D5">
-        <v>4.698321832935568</v>
+        <v>6.74918317234598</v>
       </c>
       <c r="E5">
-        <v>25.96236237534848</v>
+        <v>14.58197664651717</v>
       </c>
       <c r="F5">
-        <v>38.93027218237376</v>
+        <v>37.33720762179556</v>
       </c>
       <c r="G5">
-        <v>2.051151061545558</v>
+        <v>3.673994740841195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.05877254918028</v>
+        <v>19.4827713364548</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.47757326147488</v>
+        <v>18.54872105687048</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.294924677931936</v>
+        <v>4.600553360949476</v>
       </c>
       <c r="D6">
-        <v>4.69763630651925</v>
+        <v>6.750147204032205</v>
       </c>
       <c r="E6">
-        <v>25.85615406541659</v>
+        <v>14.54078514418445</v>
       </c>
       <c r="F6">
-        <v>38.81634677459168</v>
+        <v>37.31525240683177</v>
       </c>
       <c r="G6">
-        <v>2.051899890286752</v>
+        <v>3.674241182648804</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.95566880986332</v>
+        <v>19.45565550031968</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.49005919500951</v>
+        <v>18.55185822409459</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.465247494216336</v>
+        <v>4.648664362474016</v>
       </c>
       <c r="D7">
-        <v>4.70317585966376</v>
+        <v>6.743604725337944</v>
       </c>
       <c r="E7">
-        <v>26.58889464652784</v>
+        <v>14.82483532615975</v>
       </c>
       <c r="F7">
-        <v>39.60684166651618</v>
+        <v>37.46866903855816</v>
       </c>
       <c r="G7">
-        <v>2.046711329914896</v>
+        <v>3.672545054964559</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.66605765107822</v>
+        <v>19.64375474255927</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.40373692874279</v>
+        <v>18.53026264392387</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.186095083854793</v>
+        <v>4.859087517013797</v>
       </c>
       <c r="D8">
-        <v>4.748982397306289</v>
+        <v>6.718453222800057</v>
       </c>
       <c r="E8">
-        <v>29.71965785548792</v>
+        <v>16.0300965574138</v>
       </c>
       <c r="F8">
-        <v>43.08968832342804</v>
+        <v>38.16996495076215</v>
       </c>
       <c r="G8">
-        <v>2.023967317966195</v>
+        <v>3.665416413437614</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.67556035818296</v>
+        <v>20.46897415791377</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.03142334271765</v>
+        <v>18.43941551030578</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.502249911288608</v>
+        <v>5.260456437854873</v>
       </c>
       <c r="D9">
-        <v>4.938075419014167</v>
+        <v>6.682817003813065</v>
       </c>
       <c r="E9">
-        <v>35.58242620266096</v>
+        <v>18.246211929989</v>
       </c>
       <c r="F9">
-        <v>50.02345060513476</v>
+        <v>39.6222942776206</v>
       </c>
       <c r="G9">
-        <v>1.979037141337676</v>
+        <v>3.652701975112236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.18512094845295</v>
+        <v>22.05236494898264</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.33473398963948</v>
+        <v>18.27726329913362</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.42600051417573</v>
+        <v>5.544945764935196</v>
       </c>
       <c r="D10">
-        <v>5.163489097453445</v>
+        <v>6.665273323047869</v>
       </c>
       <c r="E10">
-        <v>39.84121028667263</v>
+        <v>19.89750456338528</v>
       </c>
       <c r="F10">
-        <v>55.48770918414214</v>
+        <v>40.72672301980604</v>
       </c>
       <c r="G10">
-        <v>1.944708650182252</v>
+        <v>3.644117715381395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.06735496054331</v>
+        <v>23.18050355668102</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.8487095037229</v>
+        <v>18.16788849520755</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.841813208501438</v>
+        <v>5.671476967716059</v>
       </c>
       <c r="D11">
-        <v>5.292287231696378</v>
+        <v>6.659231385961221</v>
       </c>
       <c r="E11">
-        <v>41.80710575925786</v>
+        <v>20.60810899274573</v>
       </c>
       <c r="F11">
-        <v>58.01186456629799</v>
+        <v>41.23520204846035</v>
       </c>
       <c r="G11">
-        <v>1.928451505336276</v>
+        <v>3.64037385734234</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.82046808762226</v>
+        <v>23.68354121293049</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.63567521879139</v>
+        <v>18.12025236823582</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.999209127978986</v>
+        <v>5.718930911315223</v>
       </c>
       <c r="D12">
-        <v>5.345663190515894</v>
+        <v>6.657227448152154</v>
       </c>
       <c r="E12">
-        <v>42.56037032670043</v>
+        <v>20.8714061821532</v>
       </c>
       <c r="F12">
-        <v>58.97756295259251</v>
+        <v>41.42844974591092</v>
       </c>
       <c r="G12">
-        <v>1.92216138252186</v>
+        <v>3.638979090987423</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.48515302148758</v>
+        <v>23.8723830030661</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.55651910041838</v>
+        <v>18.10251898284648</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.965302867779052</v>
+        <v>5.708732019950374</v>
       </c>
       <c r="D13">
-        <v>5.333947227712407</v>
+        <v>6.65764631740106</v>
       </c>
       <c r="E13">
-        <v>42.39765512690333</v>
+        <v>20.81495741688786</v>
       </c>
       <c r="F13">
-        <v>58.76905789401119</v>
+        <v>41.38680211898258</v>
       </c>
       <c r="G13">
-        <v>1.923522845558669</v>
+        <v>3.639278461686064</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.34191248613786</v>
+        <v>23.83178859309896</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.57349184760766</v>
+        <v>18.10632459110606</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.854759623350997</v>
+        <v>5.67539050928295</v>
       </c>
       <c r="D14">
-        <v>5.296580663661684</v>
+        <v>6.659060798887461</v>
       </c>
       <c r="E14">
-        <v>41.86886733619483</v>
+        <v>20.62988647852942</v>
       </c>
       <c r="F14">
-        <v>58.09108514391039</v>
+        <v>41.25108766112765</v>
       </c>
       <c r="G14">
-        <v>1.92793698573935</v>
+        <v>3.640258650382773</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.87511719547874</v>
+        <v>23.69911136319688</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.62912997462046</v>
+        <v>18.11878730752261</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.787060406541313</v>
+        <v>5.654906604274259</v>
       </c>
       <c r="D15">
-        <v>5.274320556631188</v>
+        <v>6.659964351256709</v>
       </c>
       <c r="E15">
-        <v>41.5462872322502</v>
+        <v>20.51577196378219</v>
       </c>
       <c r="F15">
-        <v>57.67724602653285</v>
+        <v>41.16804435779627</v>
       </c>
       <c r="G15">
-        <v>1.930621862811363</v>
+        <v>3.640862026541564</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.58939264453007</v>
+        <v>23.61762294277028</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.66342072753089</v>
+        <v>18.12646087218106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.398782435430713</v>
+        <v>5.536614567885284</v>
       </c>
       <c r="D16">
-        <v>5.155665864696896</v>
+        <v>6.665707637194347</v>
       </c>
       <c r="E16">
-        <v>39.7136760679237</v>
+        <v>19.85025193994066</v>
       </c>
       <c r="F16">
-        <v>55.32385922337322</v>
+        <v>40.69359982203643</v>
       </c>
       <c r="G16">
-        <v>1.945754925411243</v>
+        <v>3.644365609255603</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.95273489192304</v>
+        <v>23.14740802638537</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.86282082846752</v>
+        <v>18.1710443235752</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.159813034971007</v>
+        <v>5.463273133475348</v>
       </c>
       <c r="D17">
-        <v>5.090122093982056</v>
+        <v>6.669731238268326</v>
       </c>
       <c r="E17">
-        <v>38.5996214711805</v>
+        <v>19.43161386365099</v>
       </c>
       <c r="F17">
-        <v>53.89260681162421</v>
+        <v>40.40397255553728</v>
       </c>
       <c r="G17">
-        <v>1.954848647981326</v>
+        <v>3.646556063150889</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.94704378593768</v>
+        <v>22.85620538236232</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.98741653992004</v>
+        <v>18.19893800905345</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.021907263053965</v>
+        <v>5.420819986415948</v>
       </c>
       <c r="D18">
-        <v>5.054834542519132</v>
+        <v>6.672227681657612</v>
       </c>
       <c r="E18">
-        <v>37.96117784334233</v>
+        <v>19.1870025382207</v>
       </c>
       <c r="F18">
-        <v>53.07267478348138</v>
+        <v>40.23796819419292</v>
       </c>
       <c r="G18">
-        <v>1.960021905982103</v>
+        <v>3.647831137374131</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.36717992140631</v>
+        <v>22.68776708234697</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.05981062920314</v>
+        <v>18.21518112643459</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.97512153551448</v>
+        <v>5.406401348006247</v>
       </c>
       <c r="D19">
-        <v>5.043279220706638</v>
+        <v>6.673104063947662</v>
       </c>
       <c r="E19">
-        <v>37.74529330867922</v>
+        <v>19.10352368551887</v>
       </c>
       <c r="F19">
-        <v>52.79551592951379</v>
+        <v>40.18186723065728</v>
       </c>
       <c r="G19">
-        <v>1.961764722645595</v>
+        <v>3.648265470095039</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.17053592615377</v>
+        <v>22.63058026818436</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.08443903217656</v>
+        <v>18.22071499608974</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.185295426444439</v>
+        <v>5.471108653670955</v>
       </c>
       <c r="D20">
-        <v>5.096844470689691</v>
+        <v>6.669284026880089</v>
       </c>
       <c r="E20">
-        <v>38.71794409892973</v>
+        <v>19.47657383928895</v>
       </c>
       <c r="F20">
-        <v>54.04459931766422</v>
+        <v>40.43474495720874</v>
       </c>
       <c r="G20">
-        <v>1.953886787536402</v>
+        <v>3.646321315820434</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.05423118120198</v>
+        <v>22.88730374960058</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.97407549444839</v>
+        <v>18.19594803615007</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.887225128513826</v>
+        <v>5.685196561848362</v>
       </c>
       <c r="D21">
-        <v>5.307423425911311</v>
+        <v>6.658637581793786</v>
       </c>
       <c r="E21">
-        <v>42.02389956572959</v>
+        <v>20.68440319575666</v>
       </c>
       <c r="F21">
-        <v>58.2899122587112</v>
+        <v>41.29093273086609</v>
       </c>
       <c r="G21">
-        <v>1.92664448208197</v>
+        <v>3.63997012409825</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.01217829994596</v>
+        <v>23.73812799126577</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.61274288906217</v>
+        <v>18.11511841186475</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.34601975272002</v>
+        <v>5.822412526608132</v>
       </c>
       <c r="D22">
-        <v>5.529728841705324</v>
+        <v>6.653337373530461</v>
       </c>
       <c r="E22">
-        <v>44.23956046592296</v>
+        <v>21.44004112736837</v>
       </c>
       <c r="F22">
-        <v>61.12522145183754</v>
+        <v>41.85448902979928</v>
       </c>
       <c r="G22">
-        <v>1.908028758601295</v>
+        <v>3.635952926560992</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.9521100509041</v>
+        <v>24.28451395870811</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.38572998604416</v>
+        <v>18.06407195038049</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.10090858883382</v>
+        <v>5.749438929478696</v>
       </c>
       <c r="D23">
-        <v>5.381526474706706</v>
+        <v>6.656012777548581</v>
       </c>
       <c r="E23">
-        <v>43.04993479817796</v>
+        <v>21.03981716651309</v>
       </c>
       <c r="F23">
-        <v>59.60452089179105</v>
+        <v>41.55340049139892</v>
       </c>
       <c r="G23">
-        <v>1.918056352744584</v>
+        <v>3.638084823764346</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.91497689922861</v>
+        <v>23.99383965428334</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.50588803367181</v>
+        <v>18.09115326044415</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.173776494505702</v>
+        <v>5.467567109066122</v>
       </c>
       <c r="D24">
-        <v>5.093797885016868</v>
+        <v>6.669485640849832</v>
       </c>
       <c r="E24">
-        <v>38.6644444117834</v>
+        <v>19.45625968076425</v>
       </c>
       <c r="F24">
-        <v>53.97587473268192</v>
+        <v>40.42083116436839</v>
       </c>
       <c r="G24">
-        <v>1.954321812525878</v>
+        <v>3.646427396004404</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.00577717774164</v>
+        <v>22.87324734674501</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.98010463086508</v>
+        <v>18.19729915923091</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.155164337248658</v>
+        <v>5.153467895016652</v>
       </c>
       <c r="D25">
-        <v>4.87387744986853</v>
+        <v>6.690961944928716</v>
       </c>
       <c r="E25">
-        <v>34.01542048777395</v>
+        <v>17.63789042961572</v>
       </c>
       <c r="F25">
-        <v>48.07879953320429</v>
+        <v>39.2221276887305</v>
       </c>
       <c r="G25">
-        <v>1.991326746050622</v>
+        <v>3.656007606110526</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.73003725133469</v>
+        <v>21.62926289243512</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.51923690760787</v>
+        <v>18.31941671914348</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915482947013334</v>
+        <v>7.374326985089723</v>
       </c>
       <c r="D2">
-        <v>6.712553661746575</v>
+        <v>4.767290435635358</v>
       </c>
       <c r="E2">
-        <v>16.34434537306079</v>
+        <v>30.54572061351643</v>
       </c>
       <c r="F2">
-        <v>38.36554658936928</v>
+        <v>44.03289405428516</v>
       </c>
       <c r="G2">
-        <v>3.663571022851992</v>
+        <v>2.017815558588402</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.69077102583726</v>
+        <v>30.46226446918592</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.41588315197647</v>
+        <v>11.9326936693315</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751168202593566</v>
+        <v>6.820638797300271</v>
       </c>
       <c r="D3">
-        <v>6.730694078799715</v>
+        <v>4.721092366871421</v>
       </c>
       <c r="E3">
-        <v>15.4189264300548</v>
+        <v>28.12619997682134</v>
       </c>
       <c r="F3">
-        <v>37.80442069562195</v>
+        <v>41.29729945759994</v>
       </c>
       <c r="G3">
-        <v>3.669019411011778</v>
+        <v>2.035658076067171</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.04525747329902</v>
+        <v>28.14918163760859</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.48534606318901</v>
+        <v>12.2214659350422</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.649226523423754</v>
+        <v>6.467223129585693</v>
       </c>
       <c r="D4">
-        <v>6.743530190282536</v>
+        <v>4.703251438387599</v>
       </c>
       <c r="E4">
-        <v>14.82813360548222</v>
+        <v>26.59740886552784</v>
       </c>
       <c r="F4">
-        <v>37.47047795675854</v>
+        <v>39.61608774919738</v>
       </c>
       <c r="G4">
-        <v>3.672525403714152</v>
+        <v>2.046650734672345</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.645953987119</v>
+        <v>26.67429922020334</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.53001238408545</v>
+        <v>12.40273151563322</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.607492612973378</v>
+        <v>6.319648648185014</v>
       </c>
       <c r="D5">
-        <v>6.74918317234598</v>
+        <v>4.69832183293573</v>
       </c>
       <c r="E5">
-        <v>14.58197664651717</v>
+        <v>25.96236237534845</v>
       </c>
       <c r="F5">
-        <v>37.33720762179556</v>
+        <v>38.93027218237381</v>
       </c>
       <c r="G5">
-        <v>3.673994740841195</v>
+        <v>2.051151061545554</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.4827713364548</v>
+        <v>26.05877254918019</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.54872105687048</v>
+        <v>12.477573261475</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.600553360949476</v>
+        <v>6.294924677931933</v>
       </c>
       <c r="D6">
-        <v>6.750147204032205</v>
+        <v>4.697636306519295</v>
       </c>
       <c r="E6">
-        <v>14.54078514418445</v>
+        <v>25.85615406541651</v>
       </c>
       <c r="F6">
-        <v>37.31525240683177</v>
+        <v>38.81634677459163</v>
       </c>
       <c r="G6">
-        <v>3.674241182648804</v>
+        <v>2.051899890286747</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.45565550031968</v>
+        <v>25.95566880986338</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.55185822409459</v>
+        <v>12.49005919500948</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.648664362474016</v>
+        <v>6.465247494216434</v>
       </c>
       <c r="D7">
-        <v>6.743604725337944</v>
+        <v>4.703175859663851</v>
       </c>
       <c r="E7">
-        <v>14.82483532615975</v>
+        <v>26.58889464652782</v>
       </c>
       <c r="F7">
-        <v>37.46866903855816</v>
+        <v>39.60684166651617</v>
       </c>
       <c r="G7">
-        <v>3.672545054964559</v>
+        <v>2.046711329914627</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.64375474255927</v>
+        <v>26.66605765107829</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.53026264392387</v>
+        <v>12.40373692874276</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859087517013797</v>
+        <v>7.186095083854868</v>
       </c>
       <c r="D8">
-        <v>6.718453222800057</v>
+        <v>4.748982397306246</v>
       </c>
       <c r="E8">
-        <v>16.0300965574138</v>
+        <v>29.71965785548782</v>
       </c>
       <c r="F8">
-        <v>38.16996495076215</v>
+        <v>43.08968832342803</v>
       </c>
       <c r="G8">
-        <v>3.665416413437614</v>
+        <v>2.023967317966192</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.46897415791377</v>
+        <v>29.67556035818293</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.43941551030578</v>
+        <v>12.03142334271764</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.260456437854873</v>
+        <v>8.502249911288668</v>
       </c>
       <c r="D9">
-        <v>6.682817003813065</v>
+        <v>4.938075419014097</v>
       </c>
       <c r="E9">
-        <v>18.246211929989</v>
+        <v>35.58242620266105</v>
       </c>
       <c r="F9">
-        <v>39.6222942776206</v>
+        <v>50.02345060513488</v>
       </c>
       <c r="G9">
-        <v>3.652701975112236</v>
+        <v>1.979037141337544</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.05236494898264</v>
+        <v>35.18512094845305</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.27726329913362</v>
+        <v>11.33473398963939</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.544945764935196</v>
+        <v>9.426000514175746</v>
       </c>
       <c r="D10">
-        <v>6.665273323047869</v>
+        <v>5.16348909745347</v>
       </c>
       <c r="E10">
-        <v>19.89750456338528</v>
+        <v>39.84121028667258</v>
       </c>
       <c r="F10">
-        <v>40.72672301980604</v>
+        <v>55.48770918414214</v>
       </c>
       <c r="G10">
-        <v>3.644117715381395</v>
+        <v>1.944708650182127</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.18050355668102</v>
+        <v>39.06735496054328</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.16788849520755</v>
+        <v>10.84870950372293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.671476967716059</v>
+        <v>9.841813208501375</v>
       </c>
       <c r="D11">
-        <v>6.659231385961221</v>
+        <v>5.292287231696378</v>
       </c>
       <c r="E11">
-        <v>20.60810899274573</v>
+        <v>41.80710575925787</v>
       </c>
       <c r="F11">
-        <v>41.23520204846035</v>
+        <v>58.01186456629806</v>
       </c>
       <c r="G11">
-        <v>3.64037385734234</v>
+        <v>1.928451505336147</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.68354121293049</v>
+        <v>40.82046808762232</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.12025236823582</v>
+        <v>10.63567521879134</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.718930911315223</v>
+        <v>9.999209127979048</v>
       </c>
       <c r="D12">
-        <v>6.657227448152154</v>
+        <v>5.345663190515937</v>
       </c>
       <c r="E12">
-        <v>20.8714061821532</v>
+        <v>42.56037032670035</v>
       </c>
       <c r="F12">
-        <v>41.42844974591092</v>
+        <v>58.97756295259266</v>
       </c>
       <c r="G12">
-        <v>3.638979090987423</v>
+        <v>1.922161382521854</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.8723830030661</v>
+        <v>41.48515302148768</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.10251898284648</v>
+        <v>10.5565191004184</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.708732019950374</v>
+        <v>9.965302867778959</v>
       </c>
       <c r="D13">
-        <v>6.65764631740106</v>
+        <v>5.333947227712387</v>
       </c>
       <c r="E13">
-        <v>20.81495741688786</v>
+        <v>42.39765512690335</v>
       </c>
       <c r="F13">
-        <v>41.38680211898258</v>
+        <v>58.76905789401115</v>
       </c>
       <c r="G13">
-        <v>3.639278461686064</v>
+        <v>1.923522845558803</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.83178859309896</v>
+        <v>41.34191248613783</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.10632459110606</v>
+        <v>10.57349184760768</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.67539050928295</v>
+        <v>9.854759623351102</v>
       </c>
       <c r="D14">
-        <v>6.659060798887461</v>
+        <v>5.2965806636617</v>
       </c>
       <c r="E14">
-        <v>20.62988647852942</v>
+        <v>41.86886733619487</v>
       </c>
       <c r="F14">
-        <v>41.25108766112765</v>
+        <v>58.09108514391038</v>
       </c>
       <c r="G14">
-        <v>3.640258650382773</v>
+        <v>1.927936985739219</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.69911136319688</v>
+        <v>40.87511719547878</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.11878730752261</v>
+        <v>10.62912997462042</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.654906604274259</v>
+        <v>9.787060406541192</v>
       </c>
       <c r="D15">
-        <v>6.659964351256709</v>
+        <v>5.274320556631224</v>
       </c>
       <c r="E15">
-        <v>20.51577196378219</v>
+        <v>41.54628723225014</v>
       </c>
       <c r="F15">
-        <v>41.16804435779627</v>
+        <v>57.67724602653267</v>
       </c>
       <c r="G15">
-        <v>3.640862026541564</v>
+        <v>1.930621862811357</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.61762294277028</v>
+        <v>40.58939264452987</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.12646087218106</v>
+        <v>10.66342072753096</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.536614567885284</v>
+        <v>9.398782435430727</v>
       </c>
       <c r="D16">
-        <v>6.665707637194347</v>
+        <v>5.155665864696941</v>
       </c>
       <c r="E16">
-        <v>19.85025193994066</v>
+        <v>39.71367606792381</v>
       </c>
       <c r="F16">
-        <v>40.69359982203643</v>
+        <v>55.32385922337328</v>
       </c>
       <c r="G16">
-        <v>3.644365609255603</v>
+        <v>1.945754925410976</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.14740802638537</v>
+        <v>38.9527348919231</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.1710443235752</v>
+        <v>10.86282082846755</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.463273133475348</v>
+        <v>9.159813034971039</v>
       </c>
       <c r="D17">
-        <v>6.669731238268326</v>
+        <v>5.090122093982058</v>
       </c>
       <c r="E17">
-        <v>19.43161386365099</v>
+        <v>38.59962147118041</v>
       </c>
       <c r="F17">
-        <v>40.40397255553728</v>
+        <v>53.89260681162414</v>
       </c>
       <c r="G17">
-        <v>3.646556063150889</v>
+        <v>1.954848647981056</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.85620538236232</v>
+        <v>37.94704378593759</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.19893800905345</v>
+        <v>10.98741653992008</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.420819986415948</v>
+        <v>9.021907263053953</v>
       </c>
       <c r="D18">
-        <v>6.672227681657612</v>
+        <v>5.054834542519184</v>
       </c>
       <c r="E18">
-        <v>19.1870025382207</v>
+        <v>37.96117784334242</v>
       </c>
       <c r="F18">
-        <v>40.23796819419292</v>
+        <v>53.07267478348153</v>
       </c>
       <c r="G18">
-        <v>3.647831137374131</v>
+        <v>1.960021905981973</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.68776708234697</v>
+        <v>37.36717992140641</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.21518112643459</v>
+        <v>11.0598106292031</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.406401348006247</v>
+        <v>8.975121535514436</v>
       </c>
       <c r="D19">
-        <v>6.673104063947662</v>
+        <v>5.043279220706705</v>
       </c>
       <c r="E19">
-        <v>19.10352368551887</v>
+        <v>37.74529330867934</v>
       </c>
       <c r="F19">
-        <v>40.18186723065728</v>
+        <v>52.79551592951409</v>
       </c>
       <c r="G19">
-        <v>3.648265470095039</v>
+        <v>1.961764722645466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.63058026818436</v>
+        <v>37.170535926154</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.22071499608974</v>
+        <v>11.0844390321765</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.471108653670955</v>
+        <v>9.185295426444439</v>
       </c>
       <c r="D20">
-        <v>6.669284026880089</v>
+        <v>5.096844470689708</v>
       </c>
       <c r="E20">
-        <v>19.47657383928895</v>
+        <v>38.71794409892967</v>
       </c>
       <c r="F20">
-        <v>40.43474495720874</v>
+        <v>54.0445993176644</v>
       </c>
       <c r="G20">
-        <v>3.646321315820434</v>
+        <v>1.953886787536526</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.88730374960058</v>
+        <v>38.05423118120216</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.19594803615007</v>
+        <v>10.97407549444835</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.685196561848362</v>
+        <v>9.887225128513661</v>
       </c>
       <c r="D21">
-        <v>6.658637581793786</v>
+        <v>5.307423425911337</v>
       </c>
       <c r="E21">
-        <v>20.68440319575666</v>
+        <v>42.02389956572951</v>
       </c>
       <c r="F21">
-        <v>41.29093273086609</v>
+        <v>58.28991225871132</v>
       </c>
       <c r="G21">
-        <v>3.63997012409825</v>
+        <v>1.926644482082092</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.73812799126577</v>
+        <v>41.01217829994604</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.11511841186475</v>
+        <v>10.61274288906216</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.822412526608132</v>
+        <v>10.34601975272011</v>
       </c>
       <c r="D22">
-        <v>6.653337373530461</v>
+        <v>5.529728841705371</v>
       </c>
       <c r="E22">
-        <v>21.44004112736837</v>
+        <v>44.23956046592316</v>
       </c>
       <c r="F22">
-        <v>41.85448902979928</v>
+        <v>61.12522145183809</v>
       </c>
       <c r="G22">
-        <v>3.635952926560992</v>
+        <v>1.908028758600911</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.28451395870811</v>
+        <v>42.95211005090439</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.06407195038049</v>
+        <v>10.38572998604412</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.749438929478696</v>
+        <v>10.10090858883396</v>
       </c>
       <c r="D23">
-        <v>6.656012777548581</v>
+        <v>5.381526474706706</v>
       </c>
       <c r="E23">
-        <v>21.03981716651309</v>
+        <v>43.04993479817792</v>
       </c>
       <c r="F23">
-        <v>41.55340049139892</v>
+        <v>59.60452089179127</v>
       </c>
       <c r="G23">
-        <v>3.638084823764346</v>
+        <v>1.918056352744726</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.99383965428334</v>
+        <v>41.91497689922875</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.09115326044415</v>
+        <v>10.5058880336718</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.467567109066122</v>
+        <v>9.17377649450566</v>
       </c>
       <c r="D24">
-        <v>6.669485640849832</v>
+        <v>5.093797885016917</v>
       </c>
       <c r="E24">
-        <v>19.45625968076425</v>
+        <v>38.66444441178331</v>
       </c>
       <c r="F24">
-        <v>40.42083116436839</v>
+        <v>53.97587473268164</v>
       </c>
       <c r="G24">
-        <v>3.646427396004404</v>
+        <v>1.954321812526023</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.87324734674501</v>
+        <v>38.00577717774143</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.19729915923091</v>
+        <v>10.98010463086521</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.153467895016652</v>
+        <v>8.155164337248554</v>
       </c>
       <c r="D25">
-        <v>6.690961944928716</v>
+        <v>4.873877449868505</v>
       </c>
       <c r="E25">
-        <v>17.63789042961572</v>
+        <v>34.01542048777394</v>
       </c>
       <c r="F25">
-        <v>39.2221276887305</v>
+        <v>48.07879953320421</v>
       </c>
       <c r="G25">
-        <v>3.656007606110526</v>
+        <v>1.991326746050757</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.62926289243512</v>
+        <v>33.73003725133461</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.31941671914348</v>
+        <v>11.51923690760792</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,994 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>7.374326985089723</v>
+        <v>6.353778298551436</v>
       </c>
       <c r="D2">
-        <v>4.767290435635358</v>
+        <v>3.768703150134983</v>
       </c>
       <c r="E2">
-        <v>30.54572061351643</v>
+        <v>8.401107267899659</v>
       </c>
       <c r="F2">
-        <v>44.03289405428516</v>
+        <v>52.25432809335554</v>
       </c>
       <c r="G2">
-        <v>2.017815558588402</v>
+        <v>78.11058555285982</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.935235259796391</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.214534729496749</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20.85318815565795</v>
       </c>
       <c r="K2">
-        <v>30.46226446918592</v>
+        <v>38.56756982906619</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>7.359153224977441</v>
       </c>
       <c r="N2">
-        <v>11.9326936693315</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>6.206283318332752</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>6.820638797300271</v>
+        <v>6.053259980861897</v>
       </c>
       <c r="D3">
-        <v>4.721092366871421</v>
+        <v>3.687438456952016</v>
       </c>
       <c r="E3">
-        <v>28.12619997682134</v>
+        <v>8.133737196877288</v>
       </c>
       <c r="F3">
-        <v>41.29729945759994</v>
+        <v>49.44919823496055</v>
       </c>
       <c r="G3">
-        <v>2.035658076067171</v>
+        <v>73.51097883526234</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.602117077885352</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.840406426494158</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19.87932862898158</v>
       </c>
       <c r="K3">
-        <v>28.14918163760859</v>
+        <v>36.57208813904945</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>7.145823141270068</v>
       </c>
       <c r="N3">
-        <v>12.2214659350422</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>6.092361343860501</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>6.467223129585693</v>
+        <v>5.863803368858831</v>
       </c>
       <c r="D4">
-        <v>4.703251438387599</v>
+        <v>3.636787050839228</v>
       </c>
       <c r="E4">
-        <v>26.59740886552784</v>
+        <v>7.964978647448878</v>
       </c>
       <c r="F4">
-        <v>39.61608774919738</v>
+        <v>47.65457510666673</v>
       </c>
       <c r="G4">
-        <v>2.046650734672345</v>
+        <v>70.55246681902111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.870717602325218</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.604861263406253</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>19.2605217475813</v>
       </c>
       <c r="K4">
-        <v>26.67429922020334</v>
+        <v>35.29524844094259</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>7.010800893515381</v>
       </c>
       <c r="N4">
-        <v>12.40273151563322</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>6.021691720347349</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>6.319648648185014</v>
+        <v>5.783046146653104</v>
       </c>
       <c r="D5">
-        <v>4.69832183293573</v>
+        <v>3.615063876956684</v>
       </c>
       <c r="E5">
-        <v>25.96236237534845</v>
+        <v>7.89385733731891</v>
       </c>
       <c r="F5">
-        <v>38.93027218237381</v>
+        <v>46.88585350344174</v>
       </c>
       <c r="G5">
-        <v>2.051151061545554</v>
+        <v>69.28004492040145</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.983187054617945</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.507298314680356</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.99588321883115</v>
       </c>
       <c r="K5">
-        <v>26.05877254918019</v>
+        <v>34.74469285016599</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>6.953196875848527</v>
       </c>
       <c r="N5">
-        <v>12.477573261475</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>5.993621960902262</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>6.294924677931933</v>
+        <v>5.766838319846788</v>
       </c>
       <c r="D6">
-        <v>4.697636306519295</v>
+        <v>3.610360349384901</v>
       </c>
       <c r="E6">
-        <v>25.85615406541651</v>
+        <v>7.880531884003044</v>
       </c>
       <c r="F6">
-        <v>38.81634677459163</v>
+        <v>46.73305336785558</v>
       </c>
       <c r="G6">
-        <v>2.051899890286747</v>
+        <v>69.02575897523566</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.003310981342425</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.49115238007107</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.94253969494779</v>
       </c>
       <c r="K6">
-        <v>25.95566880986338</v>
+        <v>34.63098248372617</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>6.94165131512958</v>
       </c>
       <c r="N6">
-        <v>12.49005919500948</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>5.990070535849311</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>6.465247494216434</v>
+        <v>5.855348170852841</v>
       </c>
       <c r="D7">
-        <v>4.703175859663851</v>
+        <v>3.633517546288244</v>
       </c>
       <c r="E7">
-        <v>26.58889464652782</v>
+        <v>7.960110385322156</v>
       </c>
       <c r="F7">
-        <v>39.60684166651617</v>
+        <v>47.57956941412719</v>
       </c>
       <c r="G7">
-        <v>2.046711329914627</v>
+        <v>70.42558049480995</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.875842997510068</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.603345657429036</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>19.23246133486687</v>
       </c>
       <c r="K7">
-        <v>26.66605765107829</v>
+        <v>35.22999628731434</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>7.004828782212909</v>
       </c>
       <c r="N7">
-        <v>12.40373692874276</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>6.024356564244888</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>7.186095083854868</v>
+        <v>6.241759952062388</v>
       </c>
       <c r="D8">
-        <v>4.748982397306246</v>
+        <v>3.736865278266733</v>
       </c>
       <c r="E8">
-        <v>29.71965785548782</v>
+        <v>8.304821535189317</v>
       </c>
       <c r="F8">
-        <v>43.08968832342803</v>
+        <v>51.22157357921056</v>
       </c>
       <c r="G8">
-        <v>2.023967317966192</v>
+        <v>76.41652888770632</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.78890141938936</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.085140745798603</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>20.49097342570442</v>
       </c>
       <c r="K8">
-        <v>29.67556035818293</v>
+        <v>37.81799182051118</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>7.279748763158322</v>
       </c>
       <c r="N8">
-        <v>12.03142334271764</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>6.171103976300906</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>8.502249911288668</v>
+        <v>6.976012445026823</v>
       </c>
       <c r="D9">
-        <v>4.938075419014097</v>
+        <v>3.939214134035175</v>
       </c>
       <c r="E9">
-        <v>35.58242620266105</v>
+        <v>8.952031349036627</v>
       </c>
       <c r="F9">
-        <v>50.02345060513488</v>
+        <v>57.88198764289748</v>
       </c>
       <c r="G9">
-        <v>1.979037141337544</v>
+        <v>87.26466718307636</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.792934402690908</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.989804953091165</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.82704599288758</v>
       </c>
       <c r="K9">
-        <v>35.18512094845305</v>
+        <v>42.56804396277368</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>7.79584535571524</v>
       </c>
       <c r="N9">
-        <v>11.33473398963939</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>6.448069156093434</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>9.426000514175746</v>
+        <v>7.476875888460945</v>
       </c>
       <c r="D10">
-        <v>5.16348909745347</v>
+        <v>4.094910338836815</v>
       </c>
       <c r="E10">
-        <v>39.84121028667258</v>
+        <v>9.333385776214589</v>
       </c>
       <c r="F10">
-        <v>55.48770918414214</v>
+        <v>62.09397881014858</v>
       </c>
       <c r="G10">
-        <v>1.944708650182127</v>
+        <v>94.10578918949741</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.478316098554201</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.61439347278953</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24.32290828130838</v>
       </c>
       <c r="K10">
-        <v>39.06735496054328</v>
+        <v>45.56548789201172</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>8.09636010092181</v>
       </c>
       <c r="N10">
-        <v>10.84870950372293</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.598672476688047</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>9.841813208501375</v>
+        <v>7.547090269520871</v>
       </c>
       <c r="D11">
-        <v>5.292287231696378</v>
+        <v>4.261581450566256</v>
       </c>
       <c r="E11">
-        <v>41.80710575925787</v>
+        <v>8.923590872789379</v>
       </c>
       <c r="F11">
-        <v>58.01186456629806</v>
+        <v>61.40368342486651</v>
       </c>
       <c r="G11">
-        <v>1.928451505336147</v>
+        <v>93.33714949790713</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.111959136710286</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.744708540177771</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>24.10338153743736</v>
       </c>
       <c r="K11">
-        <v>40.82046808762232</v>
+        <v>45.05615214078198</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>7.750135535894155</v>
       </c>
       <c r="N11">
-        <v>10.63567521879134</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>6.257060838823955</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>9.999209127979048</v>
+        <v>7.52351836157472</v>
       </c>
       <c r="D12">
-        <v>5.345663190515937</v>
+        <v>4.378652679025365</v>
       </c>
       <c r="E12">
-        <v>42.56037032670035</v>
+        <v>8.575306709654273</v>
       </c>
       <c r="F12">
-        <v>58.97756295259266</v>
+        <v>60.00534395657515</v>
       </c>
       <c r="G12">
-        <v>1.922161382521854</v>
+        <v>91.37955408942535</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.062311557099965</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.73261790109763</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23.62963516021792</v>
       </c>
       <c r="K12">
-        <v>41.48515302148768</v>
+        <v>44.06176189256828</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>7.431904456018238</v>
       </c>
       <c r="N12">
-        <v>10.5565191004184</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.978634895809091</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9.965302867778959</v>
+        <v>7.415973508297037</v>
       </c>
       <c r="D13">
-        <v>5.333947227712387</v>
+        <v>4.45998256297804</v>
       </c>
       <c r="E13">
-        <v>42.39765512690335</v>
+        <v>8.251292836817086</v>
       </c>
       <c r="F13">
-        <v>58.76905789401115</v>
+        <v>57.85877715801097</v>
       </c>
       <c r="G13">
-        <v>1.923522845558803</v>
+        <v>88.19669581514495</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.137791838573111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.607907871976153</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.88848080844021</v>
       </c>
       <c r="K13">
-        <v>41.34191248613783</v>
+        <v>42.53554843187136</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>7.109735737064804</v>
       </c>
       <c r="N13">
-        <v>10.57349184760768</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.74175247147314</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>9.854759623351102</v>
+        <v>7.304276127104396</v>
       </c>
       <c r="D14">
-        <v>5.2965806636617</v>
+        <v>4.500223547251377</v>
       </c>
       <c r="E14">
-        <v>41.86886733619487</v>
+        <v>8.049838559620927</v>
       </c>
       <c r="F14">
-        <v>58.09108514391038</v>
+        <v>55.97757031353024</v>
       </c>
       <c r="G14">
-        <v>1.927936985739219</v>
+        <v>85.34899301288024</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.947467501484955</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.470495734065144</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>22.23531248398397</v>
       </c>
       <c r="K14">
-        <v>40.87511719547878</v>
+        <v>41.19606268523949</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>6.888449788559467</v>
       </c>
       <c r="N14">
-        <v>10.62912997462042</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.60609152385055</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>9.787060406541192</v>
+        <v>7.257204152813276</v>
       </c>
       <c r="D15">
-        <v>5.274320556631224</v>
+        <v>4.500330276285531</v>
       </c>
       <c r="E15">
-        <v>41.54628723225014</v>
+        <v>7.995317397123886</v>
       </c>
       <c r="F15">
-        <v>57.67724602653267</v>
+        <v>55.33606921868045</v>
       </c>
       <c r="G15">
-        <v>1.930621862811357</v>
+        <v>84.352753168357</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.127056466146148</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.41202973958167</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22.01064957084981</v>
       </c>
       <c r="K15">
-        <v>40.58939264452987</v>
+        <v>40.73580837063682</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>6.82868232063962</v>
       </c>
       <c r="N15">
-        <v>10.66342072753096</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>5.575836335624219</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>9.398782435430727</v>
+        <v>7.062506454009522</v>
       </c>
       <c r="D16">
-        <v>5.155665864696941</v>
+        <v>4.415912224252375</v>
       </c>
       <c r="E16">
-        <v>39.71367606792381</v>
+        <v>7.886571511214018</v>
       </c>
       <c r="F16">
-        <v>55.32385922337328</v>
+        <v>53.85225131650145</v>
       </c>
       <c r="G16">
-        <v>1.945754925410976</v>
+        <v>81.88863119564502</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.794345096083814</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.172820473987035</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.48322050078808</v>
       </c>
       <c r="K16">
-        <v>38.9527348919231</v>
+        <v>39.67734045667057</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>6.757909665489985</v>
       </c>
       <c r="N16">
-        <v>10.86282082846755</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>5.55842937202412</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>9.159813034971039</v>
+        <v>6.970209634653286</v>
       </c>
       <c r="D17">
-        <v>5.090122093982058</v>
+        <v>4.328691760858433</v>
       </c>
       <c r="E17">
-        <v>38.59962147118041</v>
+        <v>7.901778375000386</v>
       </c>
       <c r="F17">
-        <v>53.89260681162414</v>
+        <v>53.73954232444888</v>
       </c>
       <c r="G17">
-        <v>1.954848647981056</v>
+        <v>81.55021399221495</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.046646610880379</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.061391941105886</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.43351948685456</v>
       </c>
       <c r="K17">
-        <v>37.94704378593759</v>
+        <v>39.59389211033239</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>6.817495339105297</v>
       </c>
       <c r="N17">
-        <v>10.98741653992008</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.611696101034958</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>9.021907263053953</v>
+        <v>6.964907223071588</v>
       </c>
       <c r="D18">
-        <v>5.054834542519184</v>
+        <v>4.233982100249418</v>
       </c>
       <c r="E18">
-        <v>37.96117784334242</v>
+        <v>8.075973207117938</v>
       </c>
       <c r="F18">
-        <v>53.07267478348153</v>
+        <v>54.84971922059364</v>
       </c>
       <c r="G18">
-        <v>1.960021905981973</v>
+        <v>83.10257672805955</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.915094836442279</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.050940400575233</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.80910085108474</v>
       </c>
       <c r="K18">
-        <v>37.36717992140641</v>
+        <v>40.38854935806515</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>7.021437571659241</v>
       </c>
       <c r="N18">
-        <v>11.0598106292031</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>5.762712908314014</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>8.975121535514436</v>
+        <v>7.036502024080797</v>
       </c>
       <c r="D19">
-        <v>5.043279220706705</v>
+        <v>4.135944029501274</v>
       </c>
       <c r="E19">
-        <v>37.74529330867934</v>
+        <v>8.425802641365163</v>
       </c>
       <c r="F19">
-        <v>52.79551592951409</v>
+        <v>56.73755489210923</v>
       </c>
       <c r="G19">
-        <v>1.961764722645466</v>
+        <v>85.85925946657596</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.769345735675832</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.127668293483618</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>22.45246292955622</v>
       </c>
       <c r="K19">
-        <v>37.170535926154</v>
+        <v>41.72490201575705</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>7.349172797797277</v>
       </c>
       <c r="N19">
-        <v>11.0844390321765</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>6.026301783964303</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>9.185295426444439</v>
+        <v>7.326199040047998</v>
       </c>
       <c r="D20">
-        <v>5.096844470689708</v>
+        <v>4.045343599473537</v>
       </c>
       <c r="E20">
-        <v>38.71794409892967</v>
+        <v>9.219786685745781</v>
       </c>
       <c r="F20">
-        <v>54.0445993176644</v>
+        <v>60.8320684644815</v>
       </c>
       <c r="G20">
-        <v>1.953886787536526</v>
+        <v>92.0548257268523</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.287327025687396</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.44640290206754</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>23.8683259188346</v>
       </c>
       <c r="K20">
-        <v>38.05423118120216</v>
+        <v>44.63637292731779</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>8.001309315025635</v>
       </c>
       <c r="N20">
-        <v>10.97407549444835</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>6.565688650306462</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>9.887225128513661</v>
+        <v>7.73963975269758</v>
       </c>
       <c r="D21">
-        <v>5.307423425911337</v>
+        <v>4.148571051780697</v>
       </c>
       <c r="E21">
-        <v>42.02389956572951</v>
+        <v>9.621912954097526</v>
       </c>
       <c r="F21">
-        <v>58.28991225871132</v>
+        <v>64.43095080384451</v>
       </c>
       <c r="G21">
-        <v>1.926644482082092</v>
+        <v>97.82119930554003</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.846201803540522</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.947629379409388</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25.14801106233663</v>
       </c>
       <c r="K21">
-        <v>41.01217829994604</v>
+        <v>47.20461019848265</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>8.318394553602886</v>
       </c>
       <c r="N21">
-        <v>10.61274288906216</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.758277702997074</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>10.34601975272011</v>
+        <v>8.007046667234947</v>
       </c>
       <c r="D22">
-        <v>5.529728841705371</v>
+        <v>4.225377309588509</v>
       </c>
       <c r="E22">
-        <v>44.23956046592316</v>
+        <v>9.849214127956511</v>
       </c>
       <c r="F22">
-        <v>61.12522145183809</v>
+        <v>66.63317217561509</v>
       </c>
       <c r="G22">
-        <v>1.908028758600911</v>
+        <v>101.3611999223044</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.200361589023155</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.266574571676159</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>25.93798124605724</v>
       </c>
       <c r="K22">
-        <v>42.95211005090439</v>
+        <v>48.78788583850612</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>8.499049471401708</v>
       </c>
       <c r="N22">
-        <v>10.38572998604412</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.853830628831631</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>10.10090858883396</v>
+        <v>7.871544491548435</v>
       </c>
       <c r="D23">
-        <v>5.381526474706706</v>
+        <v>4.187875727936447</v>
       </c>
       <c r="E23">
-        <v>43.04993479817792</v>
+        <v>9.732310026732952</v>
       </c>
       <c r="F23">
-        <v>59.60452089179127</v>
+        <v>65.52394061886358</v>
       </c>
       <c r="G23">
-        <v>1.918056352744726</v>
+        <v>99.58213187609655</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.015625717052187</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.098487695596471</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25.54169836328877</v>
       </c>
       <c r="K23">
-        <v>41.91497689922875</v>
+        <v>48.00134553072804</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>8.408359339173941</v>
       </c>
       <c r="N23">
-        <v>10.5058880336718</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.799558199141726</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>9.17377649450566</v>
+        <v>7.34487824172745</v>
       </c>
       <c r="D24">
-        <v>5.093797885016917</v>
+        <v>4.040031058745985</v>
       </c>
       <c r="E24">
-        <v>38.66444441178331</v>
+        <v>9.277526640028544</v>
       </c>
       <c r="F24">
-        <v>53.97587473268164</v>
+        <v>61.09663458564346</v>
       </c>
       <c r="G24">
-        <v>1.954321812526023</v>
+        <v>92.45640139130403</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.303922081472547</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.454062028136406</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.96291125380253</v>
       </c>
       <c r="K24">
-        <v>38.00577717774143</v>
+        <v>44.84277270892309</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>8.050235482527119</v>
       </c>
       <c r="N24">
-        <v>10.98010463086521</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>6.598433012432167</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>8.155164337248554</v>
+        <v>6.768796347933104</v>
       </c>
       <c r="D25">
-        <v>4.873877449868505</v>
+        <v>3.879624353703761</v>
       </c>
       <c r="E25">
-        <v>34.01542048777394</v>
+        <v>8.773931801935319</v>
       </c>
       <c r="F25">
-        <v>48.07879953320421</v>
+        <v>56.04246704925095</v>
       </c>
       <c r="G25">
-        <v>1.991326746050757</v>
+        <v>84.27553831566991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.520261396723815</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.746784264298129</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>22.17495982524242</v>
       </c>
       <c r="K25">
-        <v>33.73003725133461</v>
+        <v>41.23739135763929</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>7.650822821514058</v>
       </c>
       <c r="N25">
-        <v>11.51923690760792</v>
-      </c>
-      <c r="O25">
+        <v>6.378970790350212</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,988 +421,1138 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.353778298551436</v>
+        <v>5.913629325533679</v>
       </c>
       <c r="D2">
-        <v>3.768703150134983</v>
+        <v>3.612392188397497</v>
       </c>
       <c r="E2">
-        <v>8.401107267899659</v>
+        <v>8.032518424418079</v>
       </c>
       <c r="F2">
-        <v>52.25432809335554</v>
+        <v>46.23563683661047</v>
       </c>
       <c r="G2">
-        <v>78.11058555285982</v>
+        <v>67.62700424397647</v>
       </c>
       <c r="H2">
-        <v>1.935235259796391</v>
+        <v>1.780270252724837</v>
       </c>
       <c r="I2">
-        <v>3.214534729496749</v>
+        <v>3.089649739864941</v>
       </c>
       <c r="J2">
-        <v>20.85318815565795</v>
+        <v>18.91110352296162</v>
       </c>
       <c r="K2">
-        <v>38.56756982906619</v>
+        <v>33.09968020393895</v>
       </c>
       <c r="L2">
-        <v>7.359153224977441</v>
+        <v>26.4834019523734</v>
+      </c>
+      <c r="M2">
+        <v>23.23211596206145</v>
       </c>
       <c r="N2">
-        <v>6.206283318332752</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.855638761057405</v>
+      </c>
+      <c r="P2">
+        <v>6.705660637548442</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.053259980861897</v>
+        <v>5.57169268856559</v>
       </c>
       <c r="D3">
-        <v>3.687438456952016</v>
+        <v>3.586539269132464</v>
       </c>
       <c r="E3">
-        <v>8.133737196877288</v>
+        <v>7.824738533980937</v>
       </c>
       <c r="F3">
-        <v>49.44919823496055</v>
+        <v>43.96587338627725</v>
       </c>
       <c r="G3">
-        <v>73.51097883526234</v>
+        <v>63.91269216902911</v>
       </c>
       <c r="H3">
-        <v>1.602117077885352</v>
+        <v>1.684695582100423</v>
       </c>
       <c r="I3">
-        <v>2.840406426494158</v>
+        <v>2.795442801392093</v>
       </c>
       <c r="J3">
-        <v>19.87932862898158</v>
+        <v>18.11713111295819</v>
       </c>
       <c r="K3">
-        <v>36.57208813904945</v>
+        <v>31.58260862002866</v>
       </c>
       <c r="L3">
-        <v>7.145823141270068</v>
+        <v>25.59409663912844</v>
+      </c>
+      <c r="M3">
+        <v>21.80805662963356</v>
       </c>
       <c r="N3">
-        <v>6.092361343860501</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.699351027241077</v>
+      </c>
+      <c r="P3">
+        <v>6.571625801317212</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.863803368858831</v>
+        <v>5.356763325232406</v>
       </c>
       <c r="D4">
-        <v>3.636787050839228</v>
+        <v>3.570736901464512</v>
       </c>
       <c r="E4">
-        <v>7.964978647448878</v>
+        <v>7.69335978446794</v>
       </c>
       <c r="F4">
-        <v>47.65457510666673</v>
+        <v>42.5121010497334</v>
       </c>
       <c r="G4">
-        <v>70.55246681902111</v>
+        <v>61.52398343214583</v>
       </c>
       <c r="H4">
-        <v>1.870717602325218</v>
+        <v>1.906099551576709</v>
       </c>
       <c r="I4">
-        <v>2.604861263406253</v>
+        <v>2.609659275243266</v>
       </c>
       <c r="J4">
-        <v>19.2605217475813</v>
+        <v>17.60937713829378</v>
       </c>
       <c r="K4">
-        <v>35.29524844094259</v>
+        <v>30.61047464290774</v>
       </c>
       <c r="L4">
-        <v>7.010800893515381</v>
+        <v>25.01619671014681</v>
+      </c>
+      <c r="M4">
+        <v>20.90679396720974</v>
       </c>
       <c r="N4">
-        <v>6.021691720347349</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>6.600099047005036</v>
+      </c>
+      <c r="P4">
+        <v>6.488801093798188</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.783046146653104</v>
+        <v>5.270925449063903</v>
       </c>
       <c r="D5">
-        <v>3.615063876956684</v>
+        <v>3.564019262893672</v>
       </c>
       <c r="E5">
-        <v>7.89385733731891</v>
+        <v>7.637893064508688</v>
       </c>
       <c r="F5">
-        <v>46.88585350344174</v>
+        <v>41.88719828762928</v>
       </c>
       <c r="G5">
-        <v>69.28004492040145</v>
+        <v>60.49346350536909</v>
       </c>
       <c r="H5">
-        <v>1.983187054617945</v>
+        <v>1.99899114355205</v>
       </c>
       <c r="I5">
-        <v>2.507298314680356</v>
+        <v>2.53307552412666</v>
       </c>
       <c r="J5">
-        <v>18.99588321883115</v>
+        <v>17.39080252816088</v>
       </c>
       <c r="K5">
-        <v>34.74469285016599</v>
+        <v>30.18863057106583</v>
       </c>
       <c r="L5">
-        <v>6.953196875848527</v>
+        <v>24.76046227731219</v>
+      </c>
+      <c r="M5">
+        <v>20.52176702205153</v>
       </c>
       <c r="N5">
-        <v>5.993621960902262</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>6.557552611869109</v>
+      </c>
+      <c r="P5">
+        <v>6.455977881085659</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.766838319846788</v>
+        <v>5.26032009157089</v>
       </c>
       <c r="D6">
-        <v>3.610360349384901</v>
+        <v>3.562554897985357</v>
       </c>
       <c r="E6">
-        <v>7.880531884003044</v>
+        <v>7.627442274012139</v>
       </c>
       <c r="F6">
-        <v>46.73305336785558</v>
+        <v>41.76078093430166</v>
       </c>
       <c r="G6">
-        <v>69.02575897523566</v>
+        <v>60.28351081773893</v>
       </c>
       <c r="H6">
-        <v>2.003310981342425</v>
+        <v>2.01559199200058</v>
       </c>
       <c r="I6">
-        <v>2.49115238007107</v>
+        <v>2.521083515622891</v>
       </c>
       <c r="J6">
-        <v>18.94253969494779</v>
+        <v>17.34596479031211</v>
       </c>
       <c r="K6">
-        <v>34.63098248372617</v>
+        <v>30.09870078851952</v>
       </c>
       <c r="L6">
-        <v>6.94165131512958</v>
+        <v>24.7025521728882</v>
+      </c>
+      <c r="M6">
+        <v>20.44320354627529</v>
       </c>
       <c r="N6">
-        <v>5.990070535849311</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6.548879839245581</v>
+      </c>
+      <c r="P6">
+        <v>6.451806574469736</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.855348170852841</v>
+        <v>5.361558245647154</v>
       </c>
       <c r="D7">
-        <v>3.633517546288244</v>
+        <v>3.569045590558938</v>
       </c>
       <c r="E7">
-        <v>7.960110385322156</v>
+        <v>7.690651656086958</v>
       </c>
       <c r="F7">
-        <v>47.57956941412719</v>
+        <v>42.41117290191057</v>
       </c>
       <c r="G7">
-        <v>70.42558049480995</v>
+        <v>61.48635961271508</v>
       </c>
       <c r="H7">
-        <v>1.875842997510068</v>
+        <v>1.911420197434878</v>
       </c>
       <c r="I7">
-        <v>2.603345657429036</v>
+        <v>2.609079337854356</v>
       </c>
       <c r="J7">
-        <v>19.23246133486687</v>
+        <v>17.50783662852719</v>
       </c>
       <c r="K7">
-        <v>35.22999628731434</v>
+        <v>30.5292731462913</v>
       </c>
       <c r="L7">
-        <v>7.004828782212909</v>
+        <v>24.95451437467546</v>
+      </c>
+      <c r="M7">
+        <v>20.84539750782702</v>
       </c>
       <c r="N7">
-        <v>6.024356564244888</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>6.594488152237998</v>
+      </c>
+      <c r="P7">
+        <v>6.491399020804649</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.241759952062388</v>
+        <v>5.796659991111987</v>
       </c>
       <c r="D8">
-        <v>3.736865278266733</v>
+        <v>3.600141425790368</v>
       </c>
       <c r="E8">
-        <v>8.304821535189317</v>
+        <v>7.96165905819744</v>
       </c>
       <c r="F8">
-        <v>51.22157357921056</v>
+        <v>45.28634715027268</v>
       </c>
       <c r="G8">
-        <v>76.41652888770632</v>
+        <v>66.48123468618915</v>
       </c>
       <c r="H8">
-        <v>1.78890141938936</v>
+        <v>1.656859817611888</v>
       </c>
       <c r="I8">
-        <v>3.085140745798603</v>
+        <v>2.986522724578307</v>
       </c>
       <c r="J8">
-        <v>20.49097342570442</v>
+        <v>18.37270324033532</v>
       </c>
       <c r="K8">
-        <v>37.81799182051118</v>
+        <v>32.4460323956621</v>
       </c>
       <c r="L8">
-        <v>7.279748763158322</v>
+        <v>26.07732549331383</v>
+      </c>
+      <c r="M8">
+        <v>22.64239369305008</v>
       </c>
       <c r="N8">
-        <v>6.171103976300906</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6.79442541183532</v>
+      </c>
+      <c r="P8">
+        <v>6.662672266333828</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.976012445026823</v>
+        <v>6.609753932240532</v>
       </c>
       <c r="D9">
-        <v>3.939214134035175</v>
+        <v>3.666037898080591</v>
       </c>
       <c r="E9">
-        <v>8.952031349036627</v>
+        <v>8.464228237939295</v>
       </c>
       <c r="F9">
-        <v>57.88198764289748</v>
+        <v>50.65418309848874</v>
       </c>
       <c r="G9">
-        <v>87.26466718307636</v>
+        <v>75.28405097876526</v>
       </c>
       <c r="H9">
-        <v>2.792934402690908</v>
+        <v>2.474536293727387</v>
       </c>
       <c r="I9">
-        <v>3.989804953091165</v>
+        <v>3.691594849338577</v>
       </c>
       <c r="J9">
-        <v>22.82704599288758</v>
+        <v>20.22012003642798</v>
       </c>
       <c r="K9">
-        <v>42.56804396277368</v>
+        <v>36.04493901311063</v>
       </c>
       <c r="L9">
-        <v>7.79584535571524</v>
+        <v>28.15811718537579</v>
+      </c>
+      <c r="M9">
+        <v>26.06009755856608</v>
       </c>
       <c r="N9">
-        <v>6.448069156093434</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>7.170647186209865</v>
+      </c>
+      <c r="P9">
+        <v>6.989391742734062</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.476875888460945</v>
+        <v>7.174334215461721</v>
       </c>
       <c r="D10">
-        <v>4.094910338836815</v>
+        <v>3.719377535046907</v>
       </c>
       <c r="E10">
-        <v>9.333385776214589</v>
+        <v>8.756856846574754</v>
       </c>
       <c r="F10">
-        <v>62.09397881014858</v>
+        <v>53.85936501494064</v>
       </c>
       <c r="G10">
-        <v>94.10578918949741</v>
+        <v>81.15986203475454</v>
       </c>
       <c r="H10">
-        <v>3.478316098554201</v>
+        <v>3.022350176202638</v>
       </c>
       <c r="I10">
-        <v>4.61439347278953</v>
+        <v>4.170400767909926</v>
       </c>
       <c r="J10">
-        <v>24.32290828130838</v>
+        <v>21.01128087398548</v>
       </c>
       <c r="K10">
-        <v>45.56548789201172</v>
+        <v>38.17895087286757</v>
       </c>
       <c r="L10">
-        <v>8.09636010092181</v>
+        <v>29.31000450652899</v>
+      </c>
+      <c r="M10">
+        <v>28.17798155893295</v>
       </c>
       <c r="N10">
-        <v>6.598672476688047</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>7.378671805207344</v>
+      </c>
+      <c r="P10">
+        <v>7.163304520346443</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.547090269520871</v>
+        <v>7.43594956095517</v>
       </c>
       <c r="D11">
-        <v>4.261581450566256</v>
+        <v>3.800171355963781</v>
       </c>
       <c r="E11">
-        <v>8.923590872789379</v>
+        <v>8.385615734030621</v>
       </c>
       <c r="F11">
-        <v>61.40368342486651</v>
+        <v>52.83395321840418</v>
       </c>
       <c r="G11">
-        <v>93.33714949790713</v>
+        <v>81.16797598654392</v>
       </c>
       <c r="H11">
-        <v>4.111959136710286</v>
+        <v>3.701552562583512</v>
       </c>
       <c r="I11">
-        <v>4.744708540177771</v>
+        <v>4.270252102382139</v>
       </c>
       <c r="J11">
-        <v>24.10338153743736</v>
+        <v>20.00333906076489</v>
       </c>
       <c r="K11">
-        <v>45.05615214078198</v>
+        <v>37.44152873509461</v>
       </c>
       <c r="L11">
-        <v>7.750135535894155</v>
+        <v>28.55596292558206</v>
+      </c>
+      <c r="M11">
+        <v>27.83582772696611</v>
       </c>
       <c r="N11">
-        <v>6.257060838823955</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.081175254637159</v>
+      </c>
+      <c r="P11">
+        <v>6.729656791203488</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.52351836157472</v>
+        <v>7.541084829324019</v>
       </c>
       <c r="D12">
-        <v>4.378652679025365</v>
+        <v>3.864667680214785</v>
       </c>
       <c r="E12">
-        <v>8.575306709654273</v>
+        <v>8.085454373518154</v>
       </c>
       <c r="F12">
-        <v>60.00534395657515</v>
+        <v>51.45260455226824</v>
       </c>
       <c r="G12">
-        <v>91.37955408942535</v>
+        <v>79.84745441866929</v>
       </c>
       <c r="H12">
-        <v>5.062311557099965</v>
+        <v>4.743415276563297</v>
       </c>
       <c r="I12">
-        <v>4.73261790109763</v>
+        <v>4.262611842523459</v>
       </c>
       <c r="J12">
-        <v>23.62963516021792</v>
+        <v>19.23603736028726</v>
       </c>
       <c r="K12">
-        <v>44.06176189256828</v>
+        <v>36.49671134943726</v>
       </c>
       <c r="L12">
-        <v>7.431904456018238</v>
+        <v>27.77508168554479</v>
+      </c>
+      <c r="M12">
+        <v>27.19684235491203</v>
       </c>
       <c r="N12">
-        <v>5.978634895809091</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>6.831408602333902</v>
+      </c>
+      <c r="P12">
+        <v>6.358170699952543</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.415973508297037</v>
+        <v>7.558094085447944</v>
       </c>
       <c r="D13">
-        <v>4.45998256297804</v>
+        <v>3.92528055715871</v>
       </c>
       <c r="E13">
-        <v>8.251292836817086</v>
+        <v>7.823719846155088</v>
       </c>
       <c r="F13">
-        <v>57.85877715801097</v>
+        <v>49.67233619656613</v>
       </c>
       <c r="G13">
-        <v>88.19669581514495</v>
+        <v>77.10572739849424</v>
       </c>
       <c r="H13">
-        <v>6.137791838573111</v>
+        <v>5.906963789350414</v>
       </c>
       <c r="I13">
-        <v>4.607907871976153</v>
+        <v>4.173831576809596</v>
       </c>
       <c r="J13">
-        <v>22.88848080844021</v>
+        <v>18.72023597503609</v>
       </c>
       <c r="K13">
-        <v>42.53554843187136</v>
+        <v>35.29422172363926</v>
       </c>
       <c r="L13">
-        <v>7.109735737064804</v>
+        <v>26.89267468268962</v>
+      </c>
+      <c r="M13">
+        <v>26.26126353960318</v>
       </c>
       <c r="N13">
-        <v>5.74175247147314</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.599534603352228</v>
+      </c>
+      <c r="P13">
+        <v>6.023637177264699</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.304276127104396</v>
+        <v>7.536081335625915</v>
       </c>
       <c r="D14">
-        <v>4.500223547251377</v>
+        <v>3.968784570647095</v>
       </c>
       <c r="E14">
-        <v>8.049838559620927</v>
+        <v>7.675563904238604</v>
       </c>
       <c r="F14">
-        <v>55.97757031353024</v>
+        <v>48.206915305643</v>
       </c>
       <c r="G14">
-        <v>85.34899301288024</v>
+        <v>74.48967235328196</v>
       </c>
       <c r="H14">
-        <v>6.947467501484955</v>
+        <v>6.769649668161187</v>
       </c>
       <c r="I14">
-        <v>4.470495734065144</v>
+        <v>4.075733481241246</v>
       </c>
       <c r="J14">
-        <v>22.23531248398397</v>
+        <v>18.45304607904401</v>
       </c>
       <c r="K14">
-        <v>41.19606268523949</v>
+        <v>34.30738503153155</v>
       </c>
       <c r="L14">
-        <v>6.888449788559467</v>
+        <v>26.20724053959758</v>
+      </c>
+      <c r="M14">
+        <v>25.4505955460229</v>
       </c>
       <c r="N14">
-        <v>5.60609152385055</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.451426010054739</v>
+      </c>
+      <c r="P14">
+        <v>5.817696785395928</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.257204152813276</v>
+        <v>7.515997136794372</v>
       </c>
       <c r="D15">
-        <v>4.500330276285531</v>
+        <v>3.977788653111138</v>
       </c>
       <c r="E15">
-        <v>7.995317397123886</v>
+        <v>7.638003735900691</v>
       </c>
       <c r="F15">
-        <v>55.33606921868045</v>
+        <v>47.73865640157403</v>
       </c>
       <c r="G15">
-        <v>84.352753168357</v>
+        <v>73.52240535403674</v>
       </c>
       <c r="H15">
-        <v>7.127056466146148</v>
+        <v>6.963733192104901</v>
       </c>
       <c r="I15">
-        <v>4.41202973958167</v>
+        <v>4.034221550417386</v>
       </c>
       <c r="J15">
-        <v>22.01064957084981</v>
+        <v>18.42126930512159</v>
       </c>
       <c r="K15">
-        <v>40.73580837063682</v>
+        <v>33.99024908686629</v>
       </c>
       <c r="L15">
-        <v>6.82868232063962</v>
+        <v>26.00161936768506</v>
+      </c>
+      <c r="M15">
+        <v>25.17346769661436</v>
       </c>
       <c r="N15">
-        <v>5.575836335624219</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.413181104670278</v>
+      </c>
+      <c r="P15">
+        <v>5.771563283349559</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.062506454009522</v>
+        <v>7.323097937447659</v>
       </c>
       <c r="D16">
-        <v>4.415912224252375</v>
+        <v>3.958065131972495</v>
       </c>
       <c r="E16">
-        <v>7.886571511214018</v>
+        <v>7.558305222129367</v>
       </c>
       <c r="F16">
-        <v>53.85225131650145</v>
+        <v>46.86578987560399</v>
       </c>
       <c r="G16">
-        <v>81.88863119564502</v>
+        <v>70.85689190922155</v>
       </c>
       <c r="H16">
-        <v>6.794345096083814</v>
+        <v>6.661053794445793</v>
       </c>
       <c r="I16">
-        <v>4.172820473987035</v>
+        <v>3.857856356361729</v>
       </c>
       <c r="J16">
-        <v>21.48322050078808</v>
+        <v>18.71579986492351</v>
       </c>
       <c r="K16">
-        <v>39.67734045667057</v>
+        <v>33.41725440003613</v>
       </c>
       <c r="L16">
-        <v>6.757909665489985</v>
+        <v>25.75115128449767</v>
+      </c>
+      <c r="M16">
+        <v>24.53531693136919</v>
       </c>
       <c r="N16">
-        <v>5.55842937202412</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.368738890192334</v>
+      </c>
+      <c r="P16">
+        <v>5.768830555167051</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.970209634653286</v>
+        <v>7.176412566928295</v>
       </c>
       <c r="D17">
-        <v>4.328691760858433</v>
+        <v>3.913631306797755</v>
       </c>
       <c r="E17">
-        <v>7.901778375000386</v>
+        <v>7.56375163604964</v>
       </c>
       <c r="F17">
-        <v>53.73954232444888</v>
+        <v>46.95623490797768</v>
       </c>
       <c r="G17">
-        <v>81.55021399221495</v>
+        <v>70.33125046334212</v>
       </c>
       <c r="H17">
-        <v>6.046646610880379</v>
+        <v>5.913740983531762</v>
       </c>
       <c r="I17">
-        <v>4.061391941105886</v>
+        <v>3.772953317782567</v>
       </c>
       <c r="J17">
-        <v>21.43351948685456</v>
+        <v>18.99486227803618</v>
       </c>
       <c r="K17">
-        <v>39.59389211033239</v>
+        <v>33.48684927585248</v>
       </c>
       <c r="L17">
-        <v>6.817495339105297</v>
+        <v>25.91339206331851</v>
+      </c>
+      <c r="M17">
+        <v>24.46424178149596</v>
       </c>
       <c r="N17">
-        <v>5.611696101034958</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.409077311773355</v>
+      </c>
+      <c r="P17">
+        <v>5.870252733475395</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.964907223071588</v>
+        <v>7.054455823128898</v>
       </c>
       <c r="D18">
-        <v>4.233982100249418</v>
+        <v>3.850502095676596</v>
       </c>
       <c r="E18">
-        <v>8.075973207117938</v>
+        <v>7.694033533694733</v>
       </c>
       <c r="F18">
-        <v>54.84971922059364</v>
+        <v>47.99283886479525</v>
       </c>
       <c r="G18">
-        <v>83.10257672805955</v>
+        <v>71.54826625733773</v>
       </c>
       <c r="H18">
-        <v>4.915094836442279</v>
+        <v>4.74983012156539</v>
       </c>
       <c r="I18">
-        <v>4.050940400575233</v>
+        <v>3.760160481615927</v>
       </c>
       <c r="J18">
-        <v>21.80910085108474</v>
+        <v>19.44545114807306</v>
       </c>
       <c r="K18">
-        <v>40.38854935806515</v>
+        <v>34.20045004545603</v>
       </c>
       <c r="L18">
-        <v>7.021437571659241</v>
+        <v>26.51308624410714</v>
+      </c>
+      <c r="M18">
+        <v>24.93571576094227</v>
       </c>
       <c r="N18">
-        <v>5.762712908314014</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.554699511900348</v>
+      </c>
+      <c r="P18">
+        <v>6.100059025617108</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.036502024080797</v>
+        <v>6.991649275533916</v>
       </c>
       <c r="D19">
-        <v>4.135944029501274</v>
+        <v>3.780304386350143</v>
       </c>
       <c r="E19">
-        <v>8.425802641365163</v>
+        <v>7.98084719296877</v>
       </c>
       <c r="F19">
-        <v>56.73755489210923</v>
+        <v>49.62679016323592</v>
       </c>
       <c r="G19">
-        <v>85.85925946657596</v>
+        <v>73.83820837562332</v>
       </c>
       <c r="H19">
-        <v>3.769345735675832</v>
+        <v>3.525260858849849</v>
       </c>
       <c r="I19">
-        <v>4.127668293483618</v>
+        <v>3.815114619189873</v>
       </c>
       <c r="J19">
-        <v>22.45246292955622</v>
+        <v>20.01730346543159</v>
       </c>
       <c r="K19">
-        <v>41.72490201575705</v>
+        <v>35.30262686908661</v>
       </c>
       <c r="L19">
-        <v>7.349172797797277</v>
+        <v>27.36415886011708</v>
+      </c>
+      <c r="M19">
+        <v>25.74958742618587</v>
       </c>
       <c r="N19">
-        <v>6.026301783964303</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.802394610670108</v>
+      </c>
+      <c r="P19">
+        <v>6.457548931201251</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.326199040047998</v>
+        <v>7.067146641379201</v>
       </c>
       <c r="D20">
-        <v>4.045343599473537</v>
+        <v>3.704521831804149</v>
       </c>
       <c r="E20">
-        <v>9.219786685745781</v>
+        <v>8.664791999265917</v>
       </c>
       <c r="F20">
-        <v>60.8320684644815</v>
+        <v>52.97548866033508</v>
       </c>
       <c r="G20">
-        <v>92.0548257268523</v>
+        <v>79.1715172945994</v>
       </c>
       <c r="H20">
-        <v>3.287327025687396</v>
+        <v>2.87371439552036</v>
       </c>
       <c r="I20">
-        <v>4.44640290206754</v>
+        <v>4.0504386519358</v>
       </c>
       <c r="J20">
-        <v>23.8683259188346</v>
+        <v>20.97651163635064</v>
       </c>
       <c r="K20">
-        <v>44.63637292731779</v>
+        <v>37.56006104226488</v>
       </c>
       <c r="L20">
-        <v>8.001309315025635</v>
+        <v>28.96231665212356</v>
+      </c>
+      <c r="M20">
+        <v>27.57835562924128</v>
       </c>
       <c r="N20">
-        <v>6.565688650306462</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7.313602661246857</v>
+      </c>
+      <c r="P20">
+        <v>7.126696913394295</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.73963975269758</v>
+        <v>7.423137515718327</v>
       </c>
       <c r="D21">
-        <v>4.148571051780697</v>
+        <v>3.729762497735662</v>
       </c>
       <c r="E21">
-        <v>9.621912954097526</v>
+        <v>9.01062286468386</v>
       </c>
       <c r="F21">
-        <v>64.43095080384451</v>
+        <v>55.24411034613943</v>
       </c>
       <c r="G21">
-        <v>97.82119930554003</v>
+        <v>85.21503719764593</v>
       </c>
       <c r="H21">
-        <v>3.846201803540522</v>
+        <v>3.29939987864936</v>
       </c>
       <c r="I21">
-        <v>4.947629379409388</v>
+        <v>4.413989536366483</v>
       </c>
       <c r="J21">
-        <v>25.14801106233663</v>
+        <v>20.51822790233751</v>
       </c>
       <c r="K21">
-        <v>47.20461019848265</v>
+        <v>39.06303929129458</v>
       </c>
       <c r="L21">
-        <v>8.318394553602886</v>
+        <v>29.75169663270556</v>
+      </c>
+      <c r="M21">
+        <v>29.09645049909227</v>
       </c>
       <c r="N21">
-        <v>6.758277702997074</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.530990816220286</v>
+      </c>
+      <c r="P21">
+        <v>7.345631258590422</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.007046667234947</v>
+        <v>7.647026218860595</v>
       </c>
       <c r="D22">
-        <v>4.225377309588509</v>
+        <v>3.754729165141963</v>
       </c>
       <c r="E22">
-        <v>9.849214127956511</v>
+        <v>9.207360806700008</v>
       </c>
       <c r="F22">
-        <v>66.63317217561509</v>
+        <v>56.57952656039176</v>
       </c>
       <c r="G22">
-        <v>101.3611999223044</v>
+        <v>89.02205907075816</v>
       </c>
       <c r="H22">
-        <v>4.200361589023155</v>
+        <v>3.567080179969932</v>
       </c>
       <c r="I22">
-        <v>5.266574571676159</v>
+        <v>4.641965269875209</v>
       </c>
       <c r="J22">
-        <v>25.93798124605724</v>
+        <v>20.12167733748826</v>
       </c>
       <c r="K22">
-        <v>48.78788583850612</v>
+        <v>39.95636849014052</v>
       </c>
       <c r="L22">
-        <v>8.499049471401708</v>
+        <v>30.20383061279928</v>
+      </c>
+      <c r="M22">
+        <v>30.0177049972837</v>
       </c>
       <c r="N22">
-        <v>6.853830628831631</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>7.650673702896511</v>
+      </c>
+      <c r="P22">
+        <v>7.451677537368359</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.871544491548435</v>
+        <v>7.525611968877499</v>
       </c>
       <c r="D23">
-        <v>4.187875727936447</v>
+        <v>3.742102144312233</v>
       </c>
       <c r="E23">
-        <v>9.732310026732952</v>
+        <v>9.102332339587134</v>
       </c>
       <c r="F23">
-        <v>65.52394061886358</v>
+        <v>55.99443313108413</v>
       </c>
       <c r="G23">
-        <v>99.58213187609655</v>
+        <v>86.93901789379601</v>
       </c>
       <c r="H23">
-        <v>4.015625717052187</v>
+        <v>3.429754661939527</v>
       </c>
       <c r="I23">
-        <v>5.098487695596471</v>
+        <v>4.52215873674719</v>
       </c>
       <c r="J23">
-        <v>25.54169836328877</v>
+        <v>20.51607572652223</v>
       </c>
       <c r="K23">
-        <v>48.00134553072804</v>
+        <v>39.57979111016537</v>
       </c>
       <c r="L23">
-        <v>8.408359339173941</v>
+        <v>30.03710694516933</v>
+      </c>
+      <c r="M23">
+        <v>29.60260900793396</v>
       </c>
       <c r="N23">
-        <v>6.799558199141726</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.593061643980096</v>
+      </c>
+      <c r="P23">
+        <v>7.392278227926771</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>7.34487824172745</v>
+        <v>7.042029727493114</v>
       </c>
       <c r="D24">
-        <v>4.040031058745985</v>
+        <v>3.700068926808052</v>
       </c>
       <c r="E24">
-        <v>9.277526640028544</v>
+        <v>8.716207694154848</v>
       </c>
       <c r="F24">
-        <v>61.09663458564346</v>
+        <v>53.21287876436981</v>
       </c>
       <c r="G24">
-        <v>92.45640139130403</v>
+        <v>79.50846410740664</v>
       </c>
       <c r="H24">
-        <v>3.303922081472547</v>
+        <v>2.886433653605732</v>
       </c>
       <c r="I24">
-        <v>4.454062028136406</v>
+        <v>4.052599310721047</v>
       </c>
       <c r="J24">
-        <v>23.96291125380253</v>
+        <v>21.07077307872116</v>
       </c>
       <c r="K24">
-        <v>44.84277270892309</v>
+        <v>37.74031032631866</v>
       </c>
       <c r="L24">
-        <v>8.050235482527119</v>
+        <v>29.1037770489409</v>
+      </c>
+      <c r="M24">
+        <v>27.70923682427354</v>
       </c>
       <c r="N24">
-        <v>6.598433012432167</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>7.353988522031239</v>
+      </c>
+      <c r="P24">
+        <v>7.166575369632995</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>6.768796347933104</v>
+        <v>6.41551595750673</v>
       </c>
       <c r="D25">
-        <v>3.879624353703761</v>
+        <v>3.647143044150525</v>
       </c>
       <c r="E25">
-        <v>8.773931801935319</v>
+        <v>8.32426524369891</v>
       </c>
       <c r="F25">
-        <v>56.04246704925095</v>
+        <v>49.20670826775901</v>
       </c>
       <c r="G25">
-        <v>84.27553831566991</v>
+        <v>72.75040819686143</v>
       </c>
       <c r="H25">
-        <v>2.520261396723815</v>
+        <v>2.255175295372291</v>
       </c>
       <c r="I25">
-        <v>3.746784264298129</v>
+        <v>3.507135438087592</v>
       </c>
       <c r="J25">
-        <v>22.17495982524242</v>
+        <v>19.80029795664086</v>
       </c>
       <c r="K25">
-        <v>41.23739135763929</v>
+        <v>35.05560679430459</v>
       </c>
       <c r="L25">
-        <v>7.650822821514058</v>
+        <v>27.58238908660686</v>
+      </c>
+      <c r="M25">
+        <v>25.12376546914735</v>
       </c>
       <c r="N25">
-        <v>6.378970790350212</v>
-      </c>
-      <c r="Q25">
+        <v>7.065623085389036</v>
+      </c>
+      <c r="P25">
+        <v>6.908284602810531</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
